--- a/Notebooks/results/SHH/SHH_effective_drugs_from_expression.xlsx
+++ b/Notebooks/results/SHH/SHH_effective_drugs_from_expression.xlsx
@@ -40,46 +40,58 @@
     <t>pyrimethamine</t>
   </si>
   <si>
+    <t>sb216763</t>
+  </si>
+  <si>
+    <t>qs11</t>
+  </si>
+  <si>
+    <t>olaparib</t>
+  </si>
+  <si>
     <t>fh535</t>
   </si>
   <si>
-    <t>sb216763</t>
+    <t>eht-1864</t>
   </si>
   <si>
     <t>chir-99021</t>
   </si>
   <si>
-    <t>qs11</t>
+    <t>bleomycin</t>
+  </si>
+  <si>
+    <t>tgx221</t>
+  </si>
+  <si>
+    <t>brd-k71935468</t>
   </si>
   <si>
     <t>bms-509744</t>
   </si>
   <si>
-    <t>bleomycin</t>
+    <t>vinorelbine</t>
+  </si>
+  <si>
+    <t>azd6482</t>
   </si>
   <si>
     <t>(5z)-7-oxozeaenol</t>
   </si>
   <si>
-    <t>tgx221</t>
+    <t>brd-k14844214</t>
+  </si>
+  <si>
+    <t>saracatinib</t>
   </si>
   <si>
     <t>gsk269962a</t>
   </si>
   <si>
-    <t>saracatinib</t>
-  </si>
-  <si>
-    <t>azd6482</t>
-  </si>
-  <si>
     <t>dactolisib</t>
   </si>
   <si>
-    <t>eht-1864</t>
-  </si>
-  <si>
-    <t>vinorelbine</t>
+    <t>brd-k48477130</t>
   </si>
   <si>
     <t>xmd11-85h</t>
@@ -88,793 +100,781 @@
     <t>zibotentan</t>
   </si>
   <si>
-    <t>brd-k48477130</t>
+    <t>brd-k52037352</t>
+  </si>
+  <si>
+    <t>bcl-lzh-4</t>
+  </si>
+  <si>
+    <t>seliciclib</t>
+  </si>
+  <si>
+    <t>wh-4-023</t>
+  </si>
+  <si>
+    <t>tanespimycin</t>
+  </si>
+  <si>
+    <t>nutlin-3a (-)</t>
+  </si>
+  <si>
+    <t>sl0101</t>
   </si>
   <si>
     <t>midostaurin</t>
   </si>
   <si>
-    <t>bcl-lzh-4</t>
-  </si>
-  <si>
-    <t>brd-k52037352</t>
+    <t>jnk-9l</t>
+  </si>
+  <si>
+    <t>pf-562271</t>
+  </si>
+  <si>
+    <t>nsc-87877</t>
+  </si>
+  <si>
+    <t>nu7441</t>
+  </si>
+  <si>
+    <t>vandetanib</t>
   </si>
   <si>
     <t>ql-viii-58</t>
   </si>
   <si>
-    <t>tanespimycin</t>
+    <t>tipifarnib</t>
   </si>
   <si>
     <t>selisistat</t>
   </si>
   <si>
-    <t>jnk-9l</t>
-  </si>
-  <si>
-    <t>sl0101</t>
-  </si>
-  <si>
-    <t>nutlin-3a (-)</t>
+    <t>gw441756</t>
+  </si>
+  <si>
+    <t>embelin</t>
+  </si>
+  <si>
+    <t>as601245</t>
+  </si>
+  <si>
+    <t>pfi-1</t>
+  </si>
+  <si>
+    <t>zd-6474</t>
+  </si>
+  <si>
+    <t>cyclopamine</t>
+  </si>
+  <si>
+    <t>thapsigargin</t>
+  </si>
+  <si>
+    <t>avagacestat</t>
+  </si>
+  <si>
+    <t>selumetinib</t>
+  </si>
+  <si>
+    <t>a-443654</t>
+  </si>
+  <si>
+    <t>a-770041</t>
+  </si>
+  <si>
+    <t>bosutinib</t>
+  </si>
+  <si>
+    <t>cisplatin</t>
+  </si>
+  <si>
+    <t>az628</t>
+  </si>
+  <si>
+    <t>cyclophosphamide</t>
+  </si>
+  <si>
+    <t>sgc0946</t>
+  </si>
+  <si>
+    <t>jq1</t>
+  </si>
+  <si>
+    <t>jw-55</t>
+  </si>
+  <si>
+    <t>lestauritinib</t>
+  </si>
+  <si>
+    <t>xmd8-85</t>
   </si>
   <si>
     <t>sb590885</t>
   </si>
   <si>
-    <t>cyclopamine</t>
-  </si>
-  <si>
-    <t>as601245</t>
-  </si>
-  <si>
-    <t>wh-4-023</t>
-  </si>
-  <si>
-    <t>thapsigargin</t>
+    <t>wz-1-84</t>
+  </si>
+  <si>
+    <t>brd-k17060750</t>
   </si>
   <si>
     <t>gsk1904529a</t>
   </si>
   <si>
-    <t>seliciclib</t>
-  </si>
-  <si>
-    <t>sgc0946</t>
-  </si>
-  <si>
     <t>681640</t>
   </si>
   <si>
-    <t>embelin</t>
-  </si>
-  <si>
-    <t>xmd8-85</t>
+    <t>jnk inhibitor viii</t>
+  </si>
+  <si>
+    <t>bryostatin 1</t>
+  </si>
+  <si>
+    <t>avicin d</t>
+  </si>
+  <si>
+    <t>betulinic acid</t>
   </si>
   <si>
     <t>luminespib</t>
   </si>
   <si>
-    <t>nu7441</t>
-  </si>
-  <si>
-    <t>selumetinib</t>
-  </si>
-  <si>
-    <t>jq1</t>
-  </si>
-  <si>
-    <t>tipifarnib</t>
-  </si>
-  <si>
-    <t>avicin d</t>
-  </si>
-  <si>
-    <t>pfi-1</t>
+    <t>zebularine</t>
+  </si>
+  <si>
+    <t>palbociclib</t>
+  </si>
+  <si>
+    <t>bleomycin (50 um)</t>
+  </si>
+  <si>
+    <t>brd-k99006945</t>
+  </si>
+  <si>
+    <t>rucaparib</t>
+  </si>
+  <si>
+    <t>gefitinib</t>
   </si>
   <si>
     <t>cgp-082996</t>
   </si>
   <si>
-    <t>brd-k71935468</t>
-  </si>
-  <si>
-    <t>olaparib</t>
-  </si>
-  <si>
-    <t>brd-k14844214</t>
+    <t>compound 1b</t>
+  </si>
+  <si>
+    <t>tak-715</t>
+  </si>
+  <si>
+    <t>dasatinib</t>
+  </si>
+  <si>
+    <t>dmog</t>
+  </si>
+  <si>
+    <t>gw-2580</t>
+  </si>
+  <si>
+    <t>shikonin</t>
+  </si>
+  <si>
+    <t>isonicotinohydroxamic acid</t>
+  </si>
+  <si>
+    <t>nelarabine</t>
+  </si>
+  <si>
+    <t>brd-k16147474</t>
+  </si>
+  <si>
+    <t>cct007093</t>
+  </si>
+  <si>
+    <t>cytochalasin b</t>
+  </si>
+  <si>
+    <t>lfm-a13</t>
+  </si>
+  <si>
+    <t>rapamycin</t>
+  </si>
+  <si>
+    <t>brd-k34099515</t>
+  </si>
+  <si>
+    <t>procarbazine</t>
+  </si>
+  <si>
+    <t>trametinib</t>
+  </si>
+  <si>
+    <t>pd318088</t>
+  </si>
+  <si>
+    <t>ku-55933</t>
+  </si>
+  <si>
+    <t>17-aag</t>
+  </si>
+  <si>
+    <t>brd-k50799972</t>
   </si>
   <si>
     <t>afatinib</t>
   </si>
   <si>
-    <t>shikonin</t>
-  </si>
-  <si>
-    <t>lestauritinib</t>
-  </si>
-  <si>
-    <t>gw441756</t>
-  </si>
-  <si>
-    <t>rapamycin</t>
+    <t>ko-143</t>
+  </si>
+  <si>
+    <t>xmd8-92</t>
+  </si>
+  <si>
+    <t>hg-5-113-01</t>
+  </si>
+  <si>
+    <t>hg6-64-1</t>
+  </si>
+  <si>
+    <t>azd0530</t>
+  </si>
+  <si>
+    <t>fmk</t>
+  </si>
+  <si>
+    <t>cay10594</t>
+  </si>
+  <si>
+    <t>doramapimod</t>
+  </si>
+  <si>
+    <t>pf-4708671</t>
+  </si>
+  <si>
+    <t>vismodegib</t>
+  </si>
+  <si>
+    <t>cabozantinib</t>
+  </si>
+  <si>
+    <t>obatoclax mesylate</t>
+  </si>
+  <si>
+    <t>vinblastine</t>
+  </si>
+  <si>
+    <t>brd-k96431673</t>
+  </si>
+  <si>
+    <t>zg-10</t>
+  </si>
+  <si>
+    <t>pha-665752</t>
+  </si>
+  <si>
+    <t>neratinib</t>
   </si>
   <si>
     <t>bicalutamide</t>
   </si>
   <si>
-    <t>hg6-64-1</t>
-  </si>
-  <si>
-    <t>lfm-a13</t>
-  </si>
-  <si>
-    <t>pf-562271</t>
-  </si>
-  <si>
-    <t>pha-665752</t>
-  </si>
-  <si>
-    <t>brd-k50799972</t>
-  </si>
-  <si>
-    <t>vandetanib</t>
-  </si>
-  <si>
-    <t>bosutinib</t>
-  </si>
-  <si>
-    <t>isonicotinohydroxamic acid</t>
-  </si>
-  <si>
-    <t>a-443654</t>
-  </si>
-  <si>
-    <t>dasatinib</t>
+    <t>ly-2157299</t>
+  </si>
+  <si>
+    <t>tg-101348</t>
+  </si>
+  <si>
+    <t>ro-3306</t>
+  </si>
+  <si>
+    <t>brd-k27224038</t>
+  </si>
+  <si>
+    <t>cct-018159</t>
+  </si>
+  <si>
+    <t>sildenafil</t>
+  </si>
+  <si>
+    <t>cytarabine</t>
+  </si>
+  <si>
+    <t>ver-155008</t>
   </si>
   <si>
     <t>tozasertib</t>
   </si>
   <si>
-    <t>nsc-87877</t>
-  </si>
-  <si>
-    <t>a-770041</t>
-  </si>
-  <si>
-    <t>palbociclib</t>
-  </si>
-  <si>
-    <t>17-aag</t>
-  </si>
-  <si>
-    <t>fmk</t>
-  </si>
-  <si>
-    <t>bryostatin 1</t>
-  </si>
-  <si>
-    <t>gefitinib</t>
-  </si>
-  <si>
-    <t>pf-4708671</t>
-  </si>
-  <si>
-    <t>xmd8-92</t>
+    <t>pictilisib</t>
+  </si>
+  <si>
+    <t>myriocin</t>
+  </si>
+  <si>
+    <t>brd-k27986637</t>
+  </si>
+  <si>
+    <t>gemcitabine</t>
+  </si>
+  <si>
+    <t>gsk650394</t>
   </si>
   <si>
     <t>pazopanib</t>
   </si>
   <si>
-    <t>gsk650394</t>
-  </si>
-  <si>
-    <t>vinblastine</t>
-  </si>
-  <si>
-    <t>wz-1-84</t>
-  </si>
-  <si>
-    <t>cabozantinib</t>
+    <t>pelitinib</t>
+  </si>
+  <si>
+    <t>jq12</t>
+  </si>
+  <si>
+    <t>bix02189</t>
+  </si>
+  <si>
+    <t>lapatinib</t>
+  </si>
+  <si>
+    <t>npc-26</t>
+  </si>
+  <si>
+    <t>fr-180204</t>
+  </si>
+  <si>
+    <t>mi-1</t>
   </si>
   <si>
     <t>epothilone b</t>
   </si>
   <si>
-    <t>azd0530</t>
-  </si>
-  <si>
-    <t>bleomycin (50 um)</t>
-  </si>
-  <si>
-    <t>betulinic acid</t>
-  </si>
-  <si>
-    <t>nelarabine</t>
-  </si>
-  <si>
-    <t>tak-715</t>
-  </si>
-  <si>
-    <t>ku-55933</t>
-  </si>
-  <si>
-    <t>pictilisib</t>
-  </si>
-  <si>
-    <t>brd-k17060750</t>
-  </si>
-  <si>
-    <t>jnk inhibitor viii</t>
+    <t>brd-k84807411</t>
+  </si>
+  <si>
+    <t>sn-38</t>
+  </si>
+  <si>
+    <t>akt inhibitor viii</t>
   </si>
   <si>
     <t>brd-k09587429</t>
   </si>
   <si>
-    <t>procarbazine</t>
-  </si>
-  <si>
-    <t>zd-6474</t>
-  </si>
-  <si>
-    <t>avagacestat</t>
-  </si>
-  <si>
-    <t>az628</t>
+    <t>pevonedistat</t>
+  </si>
+  <si>
+    <t>brd-k42260513</t>
+  </si>
+  <si>
+    <t>azacitidine</t>
+  </si>
+  <si>
+    <t>ciclosporin</t>
+  </si>
+  <si>
+    <t>unc1215</t>
+  </si>
+  <si>
+    <t>ml320</t>
+  </si>
+  <si>
+    <t>refametinib</t>
+  </si>
+  <si>
+    <t>yk-4-279</t>
+  </si>
+  <si>
+    <t>ml083</t>
+  </si>
+  <si>
+    <t>pd173074</t>
+  </si>
+  <si>
+    <t>doxorubicin</t>
+  </si>
+  <si>
+    <t>lovastatin</t>
+  </si>
+  <si>
+    <t>ml334 diastereomer</t>
+  </si>
+  <si>
+    <t>gsk319347a</t>
+  </si>
+  <si>
+    <t>brd-k02251932</t>
+  </si>
+  <si>
+    <t>brd-k86535717</t>
+  </si>
+  <si>
+    <t>cbb-1007</t>
+  </si>
+  <si>
+    <t>cil55</t>
+  </si>
+  <si>
+    <t>nvp-tae684</t>
+  </si>
+  <si>
+    <t>wz8040</t>
+  </si>
+  <si>
+    <t>sr1001</t>
+  </si>
+  <si>
+    <t>erismodegib</t>
   </si>
   <si>
     <t>ci-1040</t>
   </si>
   <si>
-    <t>obatoclax mesylate</t>
-  </si>
-  <si>
-    <t>ro-3306</t>
-  </si>
-  <si>
-    <t>brd-k27986637</t>
+    <t>brd4132</t>
+  </si>
+  <si>
+    <t>tgx-221</t>
+  </si>
+  <si>
+    <t>sb-431542</t>
+  </si>
+  <si>
+    <t>vnlg/124</t>
+  </si>
+  <si>
+    <t>semagacestat</t>
+  </si>
+  <si>
+    <t>ml312</t>
+  </si>
+  <si>
+    <t>talazoparib</t>
+  </si>
+  <si>
+    <t>staurosporine</t>
+  </si>
+  <si>
+    <t>pd0325901</t>
+  </si>
+  <si>
+    <t>elesclomol</t>
+  </si>
+  <si>
+    <t>azd6244</t>
+  </si>
+  <si>
+    <t>brd-k41334119</t>
   </si>
   <si>
     <t>cid-5951923</t>
   </si>
   <si>
-    <t>neratinib</t>
-  </si>
-  <si>
-    <t>lapatinib</t>
-  </si>
-  <si>
-    <t>cyclophosphamide</t>
-  </si>
-  <si>
-    <t>jq12</t>
-  </si>
-  <si>
-    <t>cct-018159</t>
+    <t>fumonisin b1</t>
+  </si>
+  <si>
+    <t>gnf-2</t>
+  </si>
+  <si>
+    <t>brd-k44224150</t>
+  </si>
+  <si>
+    <t>prima-1-met</t>
+  </si>
+  <si>
+    <t>l-685458</t>
+  </si>
+  <si>
+    <t>austocystin d</t>
+  </si>
+  <si>
+    <t>cgp-60474</t>
+  </si>
+  <si>
+    <t>brd-k48334597</t>
+  </si>
+  <si>
+    <t>salubrinal</t>
+  </si>
+  <si>
+    <t>jw-7-52-1</t>
+  </si>
+  <si>
+    <t>gw843682x</t>
   </si>
   <si>
     <t>etomoxir</t>
   </si>
   <si>
-    <t>gw-2580</t>
-  </si>
-  <si>
-    <t>vismodegib</t>
-  </si>
-  <si>
-    <t>pd0325901</t>
-  </si>
-  <si>
-    <t>refametinib</t>
-  </si>
-  <si>
-    <t>trametinib</t>
-  </si>
-  <si>
-    <t>cisplatin</t>
-  </si>
-  <si>
-    <t>brd-k16147474</t>
-  </si>
-  <si>
-    <t>cct007093</t>
-  </si>
-  <si>
-    <t>yk-4-279</t>
-  </si>
-  <si>
-    <t>jw-7-52-1</t>
-  </si>
-  <si>
-    <t>vnlg/124</t>
-  </si>
-  <si>
-    <t>gemcitabine</t>
-  </si>
-  <si>
-    <t>pd318088</t>
-  </si>
-  <si>
-    <t>dmog</t>
-  </si>
-  <si>
-    <t>ml320</t>
-  </si>
-  <si>
-    <t>compound 1b</t>
-  </si>
-  <si>
-    <t>ver-155008</t>
+    <t>neopeltolide</t>
+  </si>
+  <si>
+    <t>ml203</t>
+  </si>
+  <si>
+    <t>z-llnle-cho</t>
+  </si>
+  <si>
+    <t>as605240</t>
+  </si>
+  <si>
+    <t>way-362450</t>
+  </si>
+  <si>
+    <t>enzastaurin</t>
+  </si>
+  <si>
+    <t>brd-k75293299</t>
   </si>
   <si>
     <t>momelotinib</t>
   </si>
   <si>
-    <t>doramapimod</t>
-  </si>
-  <si>
-    <t>ml334 diastereomer</t>
-  </si>
-  <si>
-    <t>rucaparib</t>
-  </si>
-  <si>
-    <t>brd-k99006945</t>
-  </si>
-  <si>
-    <t>pevonedistat</t>
-  </si>
-  <si>
-    <t>brd-k27224038</t>
-  </si>
-  <si>
-    <t>zebularine</t>
-  </si>
-  <si>
-    <t>cgp-60474</t>
-  </si>
-  <si>
-    <t>myriocin</t>
-  </si>
-  <si>
-    <t>ml312</t>
-  </si>
-  <si>
     <t>xav939</t>
   </si>
   <si>
-    <t>enzastaurin</t>
-  </si>
-  <si>
-    <t>mi-1</t>
-  </si>
-  <si>
-    <t>ly-2157299</t>
-  </si>
-  <si>
-    <t>nvp-tae684</t>
-  </si>
-  <si>
-    <t>z-llnle-cho</t>
-  </si>
-  <si>
-    <t>staurosporine</t>
-  </si>
-  <si>
-    <t>neopeltolide</t>
-  </si>
-  <si>
-    <t>prima-1-met</t>
-  </si>
-  <si>
-    <t>npc-26</t>
-  </si>
-  <si>
-    <t>pelitinib</t>
-  </si>
-  <si>
-    <t>unc1215</t>
-  </si>
-  <si>
-    <t>bix02189</t>
-  </si>
-  <si>
-    <t>akt inhibitor viii</t>
+    <t>brd-k04800985</t>
+  </si>
+  <si>
+    <t>cmk</t>
+  </si>
+  <si>
+    <t>brd-k71781559</t>
+  </si>
+  <si>
+    <t>gdc-0879</t>
+  </si>
+  <si>
+    <t>fti-277</t>
+  </si>
+  <si>
+    <t>gsk-3 inhibitor ix</t>
+  </si>
+  <si>
+    <t>nintedanib</t>
+  </si>
+  <si>
+    <t>gsk4112</t>
+  </si>
+  <si>
+    <t>whi-p97</t>
+  </si>
+  <si>
+    <t>s-trityl-l-cysteine</t>
+  </si>
+  <si>
+    <t>bay-61-3606</t>
+  </si>
+  <si>
+    <t>osu-03012</t>
+  </si>
+  <si>
+    <t>teniposide</t>
   </si>
   <si>
     <t>968</t>
   </si>
   <si>
-    <t>ml203</t>
-  </si>
-  <si>
-    <t>wz8040</t>
-  </si>
-  <si>
-    <t>zg-10</t>
-  </si>
-  <si>
-    <t>brd-k34099515</t>
-  </si>
-  <si>
-    <t>brd-k71781559</t>
-  </si>
-  <si>
-    <t>as605240</t>
-  </si>
-  <si>
-    <t>gw843682x</t>
-  </si>
-  <si>
-    <t>cay10594</t>
-  </si>
-  <si>
-    <t>brd-k96431673</t>
-  </si>
-  <si>
-    <t>sn-38</t>
-  </si>
-  <si>
-    <t>s-trityl-l-cysteine</t>
-  </si>
-  <si>
-    <t>gnf-2</t>
-  </si>
-  <si>
-    <t>brd-k44224150</t>
-  </si>
-  <si>
-    <t>austocystin d</t>
-  </si>
-  <si>
-    <t>ko-143</t>
-  </si>
-  <si>
-    <t>salubrinal</t>
-  </si>
-  <si>
-    <t>talazoparib</t>
-  </si>
-  <si>
-    <t>fumonisin b1</t>
-  </si>
-  <si>
-    <t>brd-k84807411</t>
-  </si>
-  <si>
-    <t>tgx-221</t>
-  </si>
-  <si>
-    <t>tg-101348</t>
-  </si>
-  <si>
-    <t>whi-p97</t>
-  </si>
-  <si>
-    <t>brd-k04800985</t>
-  </si>
-  <si>
-    <t>brd-k48334597</t>
-  </si>
-  <si>
-    <t>hg-5-113-01</t>
-  </si>
-  <si>
-    <t>azacitidine</t>
-  </si>
-  <si>
-    <t>fr-180204</t>
-  </si>
-  <si>
-    <t>gsk-3 inhibitor ix</t>
-  </si>
-  <si>
-    <t>gsk4112</t>
-  </si>
-  <si>
-    <t>sb-431542</t>
-  </si>
-  <si>
-    <t>pd173074</t>
+    <t>simvastatin</t>
+  </si>
+  <si>
+    <t>abt-199</t>
+  </si>
+  <si>
+    <t>brd-k94991378</t>
+  </si>
+  <si>
+    <t>dabrafenib</t>
+  </si>
+  <si>
+    <t>brd-k96970199</t>
+  </si>
+  <si>
+    <t>wiki4</t>
+  </si>
+  <si>
+    <t>bx796</t>
   </si>
   <si>
     <t>lenalidomide</t>
   </si>
   <si>
-    <t>sr1001</t>
-  </si>
-  <si>
-    <t>l-685458</t>
-  </si>
-  <si>
-    <t>cbb-1007</t>
-  </si>
-  <si>
-    <t>gsk319347a</t>
-  </si>
-  <si>
-    <t>brd-k02251932</t>
-  </si>
-  <si>
-    <t>cil55</t>
-  </si>
-  <si>
-    <t>brd-k41334119</t>
-  </si>
-  <si>
-    <t>brd-k94991378</t>
-  </si>
-  <si>
-    <t>brd-k86535717</t>
-  </si>
-  <si>
-    <t>gdc-0879</t>
-  </si>
-  <si>
-    <t>osu-03012</t>
+    <t>fsc231</t>
   </si>
   <si>
     <t>brd-k13999467</t>
   </si>
   <si>
-    <t>fti-277</t>
-  </si>
-  <si>
-    <t>sildenafil</t>
-  </si>
-  <si>
-    <t>erismodegib</t>
-  </si>
-  <si>
-    <t>simvastatin</t>
-  </si>
-  <si>
-    <t>ciclosporin</t>
+    <t>vu0155056</t>
   </si>
   <si>
     <t>canertinib</t>
   </si>
   <si>
-    <t>bx796</t>
-  </si>
-  <si>
-    <t>ml083</t>
-  </si>
-  <si>
-    <t>nintedanib</t>
-  </si>
-  <si>
-    <t>lovastatin</t>
-  </si>
-  <si>
-    <t>dabrafenib</t>
-  </si>
-  <si>
-    <t>elesclomol</t>
+    <t>kin001-244</t>
+  </si>
+  <si>
+    <t>tw 37</t>
+  </si>
+  <si>
+    <t>aa-cocf3</t>
   </si>
   <si>
     <t>o-6-benzylguanine</t>
   </si>
   <si>
-    <t>doxorubicin</t>
-  </si>
-  <si>
-    <t>fsc231</t>
-  </si>
-  <si>
-    <t>bay-61-3606</t>
-  </si>
-  <si>
-    <t>jw-55</t>
-  </si>
-  <si>
-    <t>brd-k42260513</t>
-  </si>
-  <si>
-    <t>cmk</t>
-  </si>
-  <si>
-    <t>kin001-244</t>
-  </si>
-  <si>
-    <t>cytochalasin b</t>
-  </si>
-  <si>
     <t>plx-4720</t>
   </si>
   <si>
-    <t>vu0155056</t>
-  </si>
-  <si>
-    <t>azd6244</t>
-  </si>
-  <si>
-    <t>semagacestat</t>
-  </si>
-  <si>
-    <t>brd-k96970199</t>
-  </si>
-  <si>
-    <t>aa-cocf3</t>
-  </si>
-  <si>
-    <t>abt-199</t>
-  </si>
-  <si>
-    <t>teniposide</t>
-  </si>
-  <si>
-    <t>tw 37</t>
-  </si>
-  <si>
     <t>brd-k19103580</t>
   </si>
   <si>
-    <t>brd4132</t>
-  </si>
-  <si>
-    <t>wiki4</t>
-  </si>
-  <si>
-    <t>cytarabine</t>
-  </si>
-  <si>
-    <t>way-362450</t>
-  </si>
-  <si>
-    <t>brd-k75293299</t>
-  </si>
-  <si>
     <t>EGFR inhibitor (Tarceva)</t>
   </si>
   <si>
     <t>Not Clinically Relevant</t>
   </si>
   <si>
+    <t>PARP Inhibitor</t>
+  </si>
+  <si>
     <t>Induces DNA strand breaks, inhibits incorporation of thymidine into DNA strands.</t>
   </si>
   <si>
+    <t xml:space="preserve">PI3Kβ inhibitor, less active against PI3Kδ, PI3Kα and PI3Kγ </t>
+  </si>
+  <si>
     <t>kinase inhibitor, with selectivity against Src and Bcr-Abl</t>
   </si>
   <si>
-    <t xml:space="preserve">PI3Kβ inhibitor, less active against PI3Kδ, PI3Kα and PI3Kγ </t>
-  </si>
-  <si>
     <t>PI3K/mTOR inhibitor</t>
   </si>
   <si>
     <t>HSP90 inhibitor</t>
   </si>
   <si>
+    <t>VEGFR, EGFR and RET inhibitor</t>
+  </si>
+  <si>
     <t>SIRT1 inhibitor</t>
   </si>
   <si>
     <t>MEK1 inhibitor</t>
   </si>
   <si>
-    <t>PARP Inhibitor</t>
+    <t>BCR-Abl, Src, Lyn and Hck inhibitor</t>
+  </si>
+  <si>
+    <t>alkylating agent, nitrogen mustard family, works by disrupting the duplication of DNA and the creation of RNA (Cytoxan)</t>
+  </si>
+  <si>
+    <t>CDK4/6 inhibitor</t>
+  </si>
+  <si>
+    <t>PARP inhibitor, inhibits DNA repair</t>
+  </si>
+  <si>
+    <t>EGFR inhibitor (Iressa)</t>
+  </si>
+  <si>
+    <t>BCR-Abl, Src, c-Kit inhibitor</t>
+  </si>
+  <si>
+    <t>purine nucleoside analog, which causes inhibition of DNA synthesis and cytotoxicity</t>
+  </si>
+  <si>
+    <t>rapamycin, mTOR inhibitor</t>
+  </si>
+  <si>
+    <t>alkylating agent</t>
+  </si>
+  <si>
+    <t>MEK inhibitor (MEK1 and MEK2)</t>
   </si>
   <si>
     <t>EGFR and ErbB2 inhibitor</t>
   </si>
   <si>
-    <t>rapamycin, mTOR inhibitor</t>
+    <t>Hedgehog (Smoothened) antagonist (GDC-0449)</t>
+  </si>
+  <si>
+    <t>MET, AXL, VEGFR and RET inhibitor</t>
+  </si>
+  <si>
+    <t>disrupts microtubule dynamics; vinca alkaloid, chemical analogue of vincristine</t>
+  </si>
+  <si>
+    <t>Her2 and EGFR inhibitor</t>
   </si>
   <si>
     <t>antiandrogen, used to treat prostate cancer</t>
   </si>
   <si>
-    <t>VEGFR, EGFR and RET inhibitor</t>
-  </si>
-  <si>
-    <t>BCR-Abl, Src, Lyn and Hck inhibitor</t>
-  </si>
-  <si>
-    <t>BCR-Abl, Src, c-Kit inhibitor</t>
+    <t>JAK2 inhibitor</t>
+  </si>
+  <si>
+    <t>Viagra, used to treat erectile dysfunction and pulmonary arterial hypertension</t>
+  </si>
+  <si>
+    <t>antimetabolite, causes DNA damage,  inhibits both DNA and RNA polymerases and nucleotide reductase enzymes needed for DNA synthesis</t>
   </si>
   <si>
     <t>VX-680, pan-Aurora inhibitor, mostly against Aurora A, less potent towards Aurora B/C</t>
   </si>
   <si>
-    <t>CDK4/6 inhibitor</t>
-  </si>
-  <si>
-    <t>EGFR inhibitor (Iressa)</t>
+    <t>Pictilisib, potent inhibitor of PI3Kα/δ, with modest selectivity against p110β (11-fold) and p110γ</t>
+  </si>
+  <si>
+    <t>Nucleoside analog,incorporation into DNA creates an irreparable error that leads to inhibition of further DNA synthesis</t>
   </si>
   <si>
     <t>KIT, FGFR, PDGFR and VEGFR inhibitor</t>
   </si>
   <si>
-    <t>disrupts microtubule dynamics; vinca alkaloid, chemical analogue of vincristine</t>
-  </si>
-  <si>
-    <t>MET, AXL, VEGFR and RET inhibitor</t>
-  </si>
-  <si>
-    <t>purine nucleoside analog, which causes inhibition of DNA synthesis and cytotoxicity</t>
-  </si>
-  <si>
-    <t>Pictilisib, potent inhibitor of PI3Kα/δ, with modest selectivity against p110β (11-fold) and p110γ</t>
-  </si>
-  <si>
-    <t>alkylating agent</t>
-  </si>
-  <si>
-    <t>Her2 and EGFR inhibitor</t>
-  </si>
-  <si>
     <t>HER2/EGFR inhibitor</t>
   </si>
   <si>
-    <t>alkylating agent, nitrogen mustard family, works by disrupting the duplication of DNA and the creation of RNA (Cytoxan)</t>
+    <t>Topo I inhibitor, active metabolite of irinotecan but 1000 times more active</t>
+  </si>
+  <si>
+    <t>(MLN4924), inhibitor of NEDD8-activating enzyme (NAE)</t>
+  </si>
+  <si>
+    <t>Nucleoside analog, inhibitor of DNA methylation and DNA/RNA synthesis (Vidaza)</t>
+  </si>
+  <si>
+    <t>Topo II inhibitor, DNA intercalator</t>
+  </si>
+  <si>
+    <t>HMG-CoA reductase inhibitor,</t>
+  </si>
+  <si>
+    <t>Hedgehog (Smoothened) antagonist (LDE225)</t>
+  </si>
+  <si>
+    <t>Notch (gamma secretase) inhibitor</t>
   </si>
   <si>
     <t>agonist of PPARα, inhibitor of carnitine palmitoyltransferase-1 (CPT-1)</t>
   </si>
   <si>
-    <t>Hedgehog (Smoothened) antagonist (GDC-0449)</t>
-  </si>
-  <si>
-    <t>MEK inhibitor (MEK1 and MEK2)</t>
-  </si>
-  <si>
-    <t>Nucleoside analog,incorporation into DNA creates an irreparable error that leads to inhibition of further DNA synthesis</t>
-  </si>
-  <si>
     <t>JAK1 and JAK2 inhibitor</t>
   </si>
   <si>
-    <t>PARP inhibitor, inhibits DNA repair</t>
-  </si>
-  <si>
-    <t>(MLN4924), inhibitor of NEDD8-activating enzyme (NAE)</t>
-  </si>
-  <si>
-    <t>Topo I inhibitor, active metabolite of irinotecan but 1000 times more active</t>
-  </si>
-  <si>
-    <t>JAK2 inhibitor</t>
-  </si>
-  <si>
-    <t>Nucleoside analog, inhibitor of DNA methylation and DNA/RNA synthesis (Vidaza)</t>
+    <t>tyrosine-kinase inhibitor, targeting VEGFR, FGFR and PDGFR</t>
+  </si>
+  <si>
+    <t>Topo II inhibitor</t>
+  </si>
+  <si>
+    <t>Bcl2 inhibitor</t>
+  </si>
+  <si>
+    <t>Braf (V600E) inhibitor</t>
   </si>
   <si>
     <t>derivative of thalidomide, which interacts with the ubiquitin E3 ligase cereblon, targeting this enzyme to degrade the Ikaros transcription factors IKZF1 and IKZF3. Used for multiple myeloma</t>
   </si>
   <si>
-    <t>Viagra, used to treat erectile dysfunction and pulmonary arterial hypertension</t>
-  </si>
-  <si>
-    <t>Hedgehog (Smoothened) antagonist (LDE225)</t>
-  </si>
-  <si>
-    <t>HMG-CoA reductase inhibitor,</t>
-  </si>
-  <si>
     <t xml:space="preserve">pan-ErbB inhibitor for EGFR and ErbB2,  no activity to PDGFR, FGFR, InsR, PKC, or CDK1/2/4. </t>
   </si>
   <si>
-    <t>tyrosine-kinase inhibitor, targeting VEGFR, FGFR and PDGFR</t>
-  </si>
-  <si>
-    <t>Braf (V600E) inhibitor</t>
-  </si>
-  <si>
     <t>guanine analog, binds the DNA repair enzyme O(6)-alkylguanine DNA alkyltransferase (AGT) resulting in inhibition of AGT-mediated DNA repair</t>
-  </si>
-  <si>
-    <t>Topo II inhibitor, DNA intercalator</t>
-  </si>
-  <si>
-    <t>Notch (gamma secretase) inhibitor</t>
-  </si>
-  <si>
-    <t>Bcl2 inhibitor</t>
-  </si>
-  <si>
-    <t>Topo II inhibitor</t>
-  </si>
-  <si>
-    <t>antimetabolite, causes DNA damage,  inhibits both DNA and RNA polymerases and nucleotide reductase enzymes needed for DNA synthesis</t>
   </si>
 </sst>
 </file>
@@ -1266,16 +1266,16 @@
         <v>236</v>
       </c>
       <c r="C2">
-        <v>0.03318124186262488</v>
+        <v>0.03436996764686856</v>
       </c>
       <c r="D2">
-        <v>3.973214285714285e-05</v>
+        <v>0.0008333333333333334</v>
       </c>
       <c r="E2">
-        <v>0.02175</v>
+        <v>0.1585714285714286</v>
       </c>
       <c r="F2">
-        <v>0.7731372104349726</v>
+        <v>0.5600905988089723</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1286,16 +1286,16 @@
         <v>237</v>
       </c>
       <c r="C3">
-        <v>0.03459506739936342</v>
+        <v>0.03428683119139294</v>
       </c>
       <c r="D3">
-        <v>0.0001327380952380952</v>
+        <v>0.001369047619047619</v>
       </c>
       <c r="E3">
-        <v>0.02175</v>
+        <v>0.1585714285714286</v>
       </c>
       <c r="F3">
-        <v>0.7402645495119512</v>
+        <v>0.5209763640087167</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1306,16 +1306,16 @@
         <v>237</v>
       </c>
       <c r="C4">
-        <v>0.02766882492964637</v>
+        <v>0.04146386295935938</v>
       </c>
       <c r="D4">
-        <v>0.0001752976190476191</v>
+        <v>0.001517857142857143</v>
       </c>
       <c r="E4">
-        <v>0.02175</v>
+        <v>0.1585714285714286</v>
       </c>
       <c r="F4">
-        <v>0.7263454600384729</v>
+        <v>0.5170921063628873</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1326,16 +1326,16 @@
         <v>237</v>
       </c>
       <c r="C5">
-        <v>0.03954194780818664</v>
+        <v>0.03988738770344208</v>
       </c>
       <c r="D5">
-        <v>0.0001787202380952381</v>
+        <v>0.00162202380952381</v>
       </c>
       <c r="E5">
-        <v>0.02175</v>
+        <v>0.1585714285714286</v>
       </c>
       <c r="F5">
-        <v>0.7255983165361967</v>
+        <v>0.5128767245513155</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1343,19 +1343,19 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C6">
-        <v>0.04541873446194785</v>
+        <v>0.05298677704528008</v>
       </c>
       <c r="D6">
-        <v>0.0002086309523809524</v>
+        <v>0.00162202380952381</v>
       </c>
       <c r="E6">
-        <v>0.02175</v>
+        <v>0.1585714285714286</v>
       </c>
       <c r="F6">
-        <v>0.718488051546008</v>
+        <v>0.5124317773110114</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1366,16 +1366,16 @@
         <v>237</v>
       </c>
       <c r="C7">
-        <v>0.04289187143675603</v>
+        <v>0.02692556302471867</v>
       </c>
       <c r="D7">
-        <v>0.0002418154761904762</v>
+        <v>0.00162202380952381</v>
       </c>
       <c r="E7">
-        <v>0.02175</v>
+        <v>0.1585714285714286</v>
       </c>
       <c r="F7">
-        <v>0.7102351759068622</v>
+        <v>0.5109671530934095</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1386,16 +1386,16 @@
         <v>237</v>
       </c>
       <c r="C8">
-        <v>0.05054096081406174</v>
+        <v>0.03744393368180094</v>
       </c>
       <c r="D8">
-        <v>0.0002571428571428572</v>
+        <v>0.001651785714285714</v>
       </c>
       <c r="E8">
-        <v>0.02175</v>
+        <v>0.1585714285714286</v>
       </c>
       <c r="F8">
-        <v>0.7075290989553792</v>
+        <v>0.5084699938879129</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1403,19 +1403,19 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C9">
-        <v>0.05397215325660763</v>
+        <v>0.04363346732818662</v>
       </c>
       <c r="D9">
-        <v>0.0002589285714285714</v>
+        <v>0.002247023809523809</v>
       </c>
       <c r="E9">
-        <v>0.02175</v>
+        <v>0.1793333333333333</v>
       </c>
       <c r="F9">
-        <v>0.7069372514220993</v>
+        <v>0.4919735472451092</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1423,19 +1423,19 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C10">
-        <v>0.03257719068545838</v>
+        <v>0.04935710188670993</v>
       </c>
       <c r="D10">
-        <v>0.0003453869047619048</v>
+        <v>0.002782738095238095</v>
       </c>
       <c r="E10">
-        <v>0.02328</v>
+        <v>0.1793333333333333</v>
       </c>
       <c r="F10">
-        <v>0.6915319399025914</v>
+        <v>0.4820266224541919</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1446,16 +1446,16 @@
         <v>237</v>
       </c>
       <c r="C11">
-        <v>0.04958280477377757</v>
+        <v>0.04383322010345179</v>
       </c>
       <c r="D11">
-        <v>0.0003464285714285714</v>
+        <v>0.002782738095238095</v>
       </c>
       <c r="E11">
-        <v>0.02328</v>
+        <v>0.1793333333333333</v>
       </c>
       <c r="F11">
-        <v>0.6911281562371001</v>
+        <v>0.4811245485872142</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1466,13 +1466,13 @@
         <v>237</v>
       </c>
       <c r="D12">
-        <v>0.0004507440476190476</v>
+        <v>0.003244047619047619</v>
       </c>
       <c r="E12">
-        <v>0.02492</v>
+        <v>0.1793333333333333</v>
       </c>
       <c r="F12">
-        <v>0.6775089733887818</v>
+        <v>0.4750958005337294</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1480,16 +1480,16 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D13">
-        <v>0.0005293154761904762</v>
+        <v>0.003348214285714285</v>
       </c>
       <c r="E13">
-        <v>0.02492</v>
+        <v>0.1793333333333333</v>
       </c>
       <c r="F13">
-        <v>0.6700838091193116</v>
+        <v>0.4735386105724434</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1497,16 +1497,16 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D14">
-        <v>0.0005325892857142859</v>
+        <v>0.003645833333333333</v>
       </c>
       <c r="E14">
-        <v>0.02492</v>
+        <v>0.1793333333333333</v>
       </c>
       <c r="F14">
-        <v>0.6698266257185381</v>
+        <v>0.4702436911446025</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1514,16 +1514,16 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D15">
-        <v>0.0005358630952380952</v>
+        <v>0.00375</v>
       </c>
       <c r="E15">
-        <v>0.02492</v>
+        <v>0.1793333333333333</v>
       </c>
       <c r="F15">
-        <v>0.6696422022609227</v>
+        <v>0.4692202656716179</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1534,13 +1534,13 @@
         <v>237</v>
       </c>
       <c r="D16">
-        <v>0.00055625</v>
+        <v>0.00400297619047619</v>
       </c>
       <c r="E16">
-        <v>0.02492</v>
+        <v>0.1793333333333333</v>
       </c>
       <c r="F16">
-        <v>0.6682569597821162</v>
+        <v>0.4660044905700446</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1551,13 +1551,13 @@
         <v>237</v>
       </c>
       <c r="D17">
-        <v>0.0006010416666666668</v>
+        <v>0.004508928571428572</v>
       </c>
       <c r="E17">
-        <v>0.02524375</v>
+        <v>0.1855555555555556</v>
       </c>
       <c r="F17">
-        <v>0.6652235784724314</v>
+        <v>0.4637481425171691</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1565,16 +1565,16 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="D18">
-        <v>0.0007683035714285715</v>
+        <v>0.004970238095238095</v>
       </c>
       <c r="E18">
-        <v>0.03033888888888889</v>
+        <v>0.1855555555555556</v>
       </c>
       <c r="F18">
-        <v>0.6562652599105421</v>
+        <v>0.4591742425374931</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1585,13 +1585,13 @@
         <v>237</v>
       </c>
       <c r="D19">
-        <v>0.0008126488095238094</v>
+        <v>0.004970238095238095</v>
       </c>
       <c r="E19">
-        <v>0.03033888888888889</v>
+        <v>0.1855555555555556</v>
       </c>
       <c r="F19">
-        <v>0.6540123525258569</v>
+        <v>0.4591196421379334</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1599,16 +1599,16 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="D20">
-        <v>0.0008854166666666666</v>
+        <v>0.005297619047619048</v>
       </c>
       <c r="E20">
-        <v>0.03131578947368421</v>
+        <v>0.1873684210526316</v>
       </c>
       <c r="F20">
-        <v>0.6508193125630646</v>
+        <v>0.4533569773545258</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1619,13 +1619,13 @@
         <v>237</v>
       </c>
       <c r="D21">
-        <v>0.001247619047619048</v>
+        <v>0.00650297619047619</v>
       </c>
       <c r="E21">
-        <v>0.04192</v>
+        <v>0.1957142857142857</v>
       </c>
       <c r="F21">
-        <v>0.6363783870766494</v>
+        <v>0.4347906375924744</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1636,13 +1636,13 @@
         <v>237</v>
       </c>
       <c r="D22">
-        <v>0.001376785714285715</v>
+        <v>0.0065625</v>
       </c>
       <c r="E22">
-        <v>0.04238636363636363</v>
+        <v>0.1957142857142857</v>
       </c>
       <c r="F22">
-        <v>0.6313360675239318</v>
+        <v>0.4341950034903493</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1653,13 +1653,13 @@
         <v>237</v>
       </c>
       <c r="D23">
-        <v>0.00138764880952381</v>
+        <v>0.006592261904761905</v>
       </c>
       <c r="E23">
-        <v>0.04238636363636363</v>
+        <v>0.1957142857142857</v>
       </c>
       <c r="F23">
-        <v>0.6308249004324</v>
+        <v>0.4332273889527701</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1670,13 +1670,13 @@
         <v>237</v>
       </c>
       <c r="D24">
-        <v>0.00156264880952381</v>
+        <v>0.006889880952380952</v>
       </c>
       <c r="E24">
-        <v>0.04565652173913043</v>
+        <v>0.1957142857142857</v>
       </c>
       <c r="F24">
-        <v>0.6241358716565422</v>
+        <v>0.4284685883473688</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1684,16 +1684,16 @@
         <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D25">
-        <v>0.001967410714285714</v>
+        <v>0.007857142857142858</v>
       </c>
       <c r="E25">
-        <v>0.0550875</v>
+        <v>0.1957142857142857</v>
       </c>
       <c r="F25">
-        <v>0.6093973006111641</v>
+        <v>0.4139562939074409</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1701,16 +1701,16 @@
         <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="D26">
-        <v>0.002075148809523809</v>
+        <v>0.00794642857142857</v>
       </c>
       <c r="E26">
-        <v>0.05578</v>
+        <v>0.1957142857142857</v>
       </c>
       <c r="F26">
-        <v>0.6056747393950466</v>
+        <v>0.411928858891349</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1721,13 +1721,13 @@
         <v>237</v>
       </c>
       <c r="D27">
-        <v>0.002342857142857143</v>
+        <v>0.00794642857142857</v>
       </c>
       <c r="E27">
-        <v>0.06055384615384616</v>
+        <v>0.1957142857142857</v>
       </c>
       <c r="F27">
-        <v>0.5979569823793734</v>
+        <v>0.41175480610643</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1735,16 +1735,16 @@
         <v>32</v>
       </c>
       <c r="B28" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="D28">
-        <v>0.002627976190476191</v>
+        <v>0.007976190476190477</v>
       </c>
       <c r="E28">
-        <v>0.0654074074074074</v>
+        <v>0.1957142857142857</v>
       </c>
       <c r="F28">
-        <v>0.5907058711981304</v>
+        <v>0.4108644561526123</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1755,13 +1755,13 @@
         <v>237</v>
       </c>
       <c r="D29">
-        <v>0.003031696428571429</v>
+        <v>0.008154761904761904</v>
       </c>
       <c r="E29">
-        <v>0.07189666666666666</v>
+        <v>0.1957142857142857</v>
       </c>
       <c r="F29">
-        <v>0.5815596189533789</v>
+        <v>0.4074461644051617</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1772,13 +1772,13 @@
         <v>237</v>
       </c>
       <c r="D30">
-        <v>0.003181994047619048</v>
+        <v>0.008988095238095238</v>
       </c>
       <c r="E30">
-        <v>0.07189666666666666</v>
+        <v>0.1966666666666667</v>
       </c>
       <c r="F30">
-        <v>0.5785988199244193</v>
+        <v>0.4009139795350186</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1789,13 +1789,13 @@
         <v>237</v>
       </c>
       <c r="D31">
-        <v>0.003209672619047619</v>
+        <v>0.009136904761904764</v>
       </c>
       <c r="E31">
-        <v>0.07189666666666666</v>
+        <v>0.1966666666666667</v>
       </c>
       <c r="F31">
-        <v>0.5778693275294263</v>
+        <v>0.3996612442215007</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1806,13 +1806,13 @@
         <v>237</v>
       </c>
       <c r="D32">
-        <v>0.003371130952380952</v>
+        <v>0.009538690476190477</v>
       </c>
       <c r="E32">
-        <v>0.0730774193548387</v>
+        <v>0.1966666666666667</v>
       </c>
       <c r="F32">
-        <v>0.5744963658997255</v>
+        <v>0.397874483101144</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1823,13 +1823,13 @@
         <v>237</v>
       </c>
       <c r="D33">
-        <v>0.003500595238095238</v>
+        <v>0.009568452380952379</v>
       </c>
       <c r="E33">
-        <v>0.07351250000000001</v>
+        <v>0.1966666666666667</v>
       </c>
       <c r="F33">
-        <v>0.5722947787091844</v>
+        <v>0.397628546852644</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1840,13 +1840,13 @@
         <v>237</v>
       </c>
       <c r="D34">
-        <v>0.004308035714285714</v>
+        <v>0.009657738095238096</v>
       </c>
       <c r="E34">
-        <v>0.08772727272727272</v>
+        <v>0.1966666666666667</v>
       </c>
       <c r="F34">
-        <v>0.5578559721974135</v>
+        <v>0.3971632496439198</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1857,13 +1857,13 @@
         <v>237</v>
       </c>
       <c r="D35">
-        <v>0.005262202380952381</v>
+        <v>0.01089285714285714</v>
       </c>
       <c r="E35">
-        <v>0.0948431818181818</v>
+        <v>0.2138888888888889</v>
       </c>
       <c r="F35">
-        <v>0.5438990463323871</v>
+        <v>0.3928184547795086</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1871,16 +1871,16 @@
         <v>40</v>
       </c>
       <c r="B36" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="D36">
-        <v>0.005360714285714286</v>
+        <v>0.01126488095238095</v>
       </c>
       <c r="E36">
-        <v>0.0948431818181818</v>
+        <v>0.2138888888888889</v>
       </c>
       <c r="F36">
-        <v>0.542696786906806</v>
+        <v>0.3918359677670459</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1891,13 +1891,13 @@
         <v>237</v>
       </c>
       <c r="D37">
-        <v>0.005404910714285714</v>
+        <v>0.01145833333333333</v>
       </c>
       <c r="E37">
-        <v>0.0948431818181818</v>
+        <v>0.2138888888888889</v>
       </c>
       <c r="F37">
-        <v>0.542175249422881</v>
+        <v>0.3907228505545526</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1908,13 +1908,13 @@
         <v>237</v>
       </c>
       <c r="D38">
-        <v>0.005435863095238095</v>
+        <v>0.01220238095238095</v>
       </c>
       <c r="E38">
-        <v>0.0948431818181818</v>
+        <v>0.2216216216216217</v>
       </c>
       <c r="F38">
-        <v>0.5417342929134714</v>
+        <v>0.3843466748819582</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1922,16 +1922,16 @@
         <v>43</v>
       </c>
       <c r="B39" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="D39">
-        <v>0.005685416666666668</v>
+        <v>0.013125</v>
       </c>
       <c r="E39">
-        <v>0.0948431818181818</v>
+        <v>0.2321052631578948</v>
       </c>
       <c r="F39">
-        <v>0.5389681828241857</v>
+        <v>0.3788481380734529</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1942,13 +1942,13 @@
         <v>237</v>
       </c>
       <c r="D40">
-        <v>0.005795386904761905</v>
+        <v>0.01459821428571429</v>
       </c>
       <c r="E40">
-        <v>0.0948431818181818</v>
+        <v>0.2414893617021276</v>
       </c>
       <c r="F40">
-        <v>0.5377377868629607</v>
+        <v>0.3710650635052784</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1959,13 +1959,13 @@
         <v>237</v>
       </c>
       <c r="D41">
-        <v>0.005885119047619048</v>
+        <v>0.01489583333333333</v>
       </c>
       <c r="E41">
-        <v>0.0948431818181818</v>
+        <v>0.2414893617021276</v>
       </c>
       <c r="F41">
-        <v>0.5368331527209332</v>
+        <v>0.3688923247612977</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1976,13 +1976,13 @@
         <v>237</v>
       </c>
       <c r="D42">
-        <v>0.005965327380952381</v>
+        <v>0.01555059523809524</v>
       </c>
       <c r="E42">
-        <v>0.0948431818181818</v>
+        <v>0.2414893617021276</v>
       </c>
       <c r="F42">
-        <v>0.5359144504936588</v>
+        <v>0.3650680238401425</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1990,16 +1990,16 @@
         <v>47</v>
       </c>
       <c r="B43" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="D43">
-        <v>0.006049553571428571</v>
+        <v>0.01568452380952381</v>
       </c>
       <c r="E43">
-        <v>0.0948431818181818</v>
+        <v>0.2414893617021276</v>
       </c>
       <c r="F43">
-        <v>0.5350483421487368</v>
+        <v>0.3634080069761437</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2007,16 +2007,16 @@
         <v>48</v>
       </c>
       <c r="B44" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="D44">
-        <v>0.006177976190476189</v>
+        <v>0.01577380952380952</v>
       </c>
       <c r="E44">
-        <v>0.0948431818181818</v>
+        <v>0.2414893617021276</v>
       </c>
       <c r="F44">
-        <v>0.5338328265446818</v>
+        <v>0.363172542721777</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2027,13 +2027,13 @@
         <v>237</v>
       </c>
       <c r="D45">
-        <v>0.006209970238095238</v>
+        <v>0.01595238095238095</v>
       </c>
       <c r="E45">
-        <v>0.0948431818181818</v>
+        <v>0.2414893617021276</v>
       </c>
       <c r="F45">
-        <v>0.5335828854321975</v>
+        <v>0.3622346798196498</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2044,13 +2044,13 @@
         <v>237</v>
       </c>
       <c r="D46">
-        <v>0.006995535714285714</v>
+        <v>0.01654761904761905</v>
       </c>
       <c r="E46">
-        <v>0.1044666666666667</v>
+        <v>0.2414893617021276</v>
       </c>
       <c r="F46">
-        <v>0.5264943258716587</v>
+        <v>0.3588010202640046</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2061,13 +2061,13 @@
         <v>237</v>
       </c>
       <c r="D47">
-        <v>0.007408184523809523</v>
+        <v>0.01677083333333333</v>
       </c>
       <c r="E47">
-        <v>0.1082239130434782</v>
+        <v>0.2414893617021276</v>
       </c>
       <c r="F47">
-        <v>0.5228458077382293</v>
+        <v>0.3574198466825458</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2075,16 +2075,16 @@
         <v>52</v>
       </c>
       <c r="B48" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="D48">
-        <v>0.00762232142857143</v>
+        <v>0.01688988095238095</v>
       </c>
       <c r="E48">
-        <v>0.1089829787234043</v>
+        <v>0.2414893617021276</v>
       </c>
       <c r="F48">
-        <v>0.5210925948698011</v>
+        <v>0.3569547056988953</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2095,13 +2095,13 @@
         <v>237</v>
       </c>
       <c r="D49">
-        <v>0.008425148809523809</v>
+        <v>0.01767857142857143</v>
       </c>
       <c r="E49">
-        <v>0.1179520833333333</v>
+        <v>0.2475000000000001</v>
       </c>
       <c r="F49">
-        <v>0.5146906760793289</v>
+        <v>0.3535640032079788</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2109,16 +2109,16 @@
         <v>54</v>
       </c>
       <c r="B50" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="D50">
-        <v>0.009648511904761905</v>
+        <v>0.01918154761904762</v>
       </c>
       <c r="E50">
-        <v>0.1323224489795919</v>
+        <v>0.2598</v>
       </c>
       <c r="F50">
-        <v>0.5060895378302984</v>
+        <v>0.3495037068323676</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2126,16 +2126,16 @@
         <v>55</v>
       </c>
       <c r="B51" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="D51">
-        <v>0.01203541666666667</v>
+        <v>0.01933035714285714</v>
       </c>
       <c r="E51">
-        <v>0.1611230769230769</v>
+        <v>0.2598</v>
       </c>
       <c r="F51">
-        <v>0.4916066271476931</v>
+        <v>0.3488887071024959</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2143,16 +2143,16 @@
         <v>56</v>
       </c>
       <c r="B52" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="D52">
-        <v>0.01237380952380952</v>
+        <v>0.0228125</v>
       </c>
       <c r="E52">
-        <v>0.1611230769230769</v>
+        <v>0.3005882352941177</v>
       </c>
       <c r="F52">
-        <v>0.4896531831411282</v>
+        <v>0.342661439675237</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2163,13 +2163,13 @@
         <v>237</v>
       </c>
       <c r="D53">
-        <v>0.01246785714285714</v>
+        <v>0.02349702380952381</v>
       </c>
       <c r="E53">
-        <v>0.1611230769230769</v>
+        <v>0.3036538461538461</v>
       </c>
       <c r="F53">
-        <v>0.4891865609569565</v>
+        <v>0.3418934099279518</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2177,16 +2177,16 @@
         <v>58</v>
       </c>
       <c r="B54" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="D54">
-        <v>0.01305892857142857</v>
+        <v>0.02416666666666666</v>
       </c>
       <c r="E54">
-        <v>0.165577358490566</v>
+        <v>0.3064150943396227</v>
       </c>
       <c r="F54">
-        <v>0.4858738429058357</v>
+        <v>0.3411941314313273</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2197,13 +2197,13 @@
         <v>237</v>
       </c>
       <c r="D55">
-        <v>0.01549122023809524</v>
+        <v>0.02470238095238095</v>
       </c>
       <c r="E55">
-        <v>0.1926054545454545</v>
+        <v>0.3074074074074073</v>
       </c>
       <c r="F55">
-        <v>0.472154372456201</v>
+        <v>0.3407157454555715</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2211,16 +2211,16 @@
         <v>60</v>
       </c>
       <c r="B56" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="D56">
-        <v>0.01576383928571429</v>
+        <v>0.02525297619047619</v>
       </c>
       <c r="E56">
-        <v>0.1926054545454545</v>
+        <v>0.3083928571428572</v>
       </c>
       <c r="F56">
-        <v>0.4706660377639049</v>
+        <v>0.3400534261367489</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2228,16 +2228,16 @@
         <v>61</v>
       </c>
       <c r="B57" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="D57">
-        <v>0.01610089285714286</v>
+        <v>0.02569940476190476</v>
       </c>
       <c r="E57">
-        <v>0.1932087719298245</v>
+        <v>0.3083928571428572</v>
       </c>
       <c r="F57">
-        <v>0.4688076359399713</v>
+        <v>0.3397042430237312</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2248,13 +2248,13 @@
         <v>237</v>
       </c>
       <c r="D58">
-        <v>0.01638824404761905</v>
+        <v>0.02669642857142857</v>
       </c>
       <c r="E58">
-        <v>0.1932087719298245</v>
+        <v>0.3147368421052631</v>
       </c>
       <c r="F58">
-        <v>0.4673401490600886</v>
+        <v>0.3385756377079497</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2265,13 +2265,13 @@
         <v>237</v>
       </c>
       <c r="D59">
-        <v>0.01669910714285714</v>
+        <v>0.02764880952380952</v>
       </c>
       <c r="E59">
-        <v>0.1934793103448276</v>
+        <v>0.3201666666666667</v>
       </c>
       <c r="F59">
-        <v>0.4654700503901001</v>
+        <v>0.3367267626975596</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2282,13 +2282,13 @@
         <v>237</v>
       </c>
       <c r="D60">
-        <v>0.01833095238095239</v>
+        <v>0.02852678571428572</v>
       </c>
       <c r="E60">
-        <v>0.2087864406779661</v>
+        <v>0.3201666666666667</v>
       </c>
       <c r="F60">
-        <v>0.4566253365234839</v>
+        <v>0.3348344608561757</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2299,13 +2299,13 @@
         <v>237</v>
       </c>
       <c r="D61">
-        <v>0.0197860119047619</v>
+        <v>0.02858630952380952</v>
       </c>
       <c r="E61">
-        <v>0.2216033333333333</v>
+        <v>0.3201666666666667</v>
       </c>
       <c r="F61">
-        <v>0.4497239337011403</v>
+        <v>0.334610716650784</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2316,13 +2316,13 @@
         <v>237</v>
       </c>
       <c r="D62">
-        <v>0.02087559523809524</v>
+        <v>0.02910714285714286</v>
       </c>
       <c r="E62">
-        <v>0.2299737704918033</v>
+        <v>0.320655737704918</v>
       </c>
       <c r="F62">
-        <v>0.4449535970213524</v>
+        <v>0.3337469074038752</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2330,16 +2330,16 @@
         <v>67</v>
       </c>
       <c r="B63" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="D63">
-        <v>0.02133422619047619</v>
+        <v>0.03275297619047619</v>
       </c>
       <c r="E63">
-        <v>0.2312354838709677</v>
+        <v>0.3546875</v>
       </c>
       <c r="F63">
-        <v>0.4430695346796272</v>
+        <v>0.3264477466301232</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2347,16 +2347,16 @@
         <v>68</v>
       </c>
       <c r="B64" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="D64">
-        <v>0.02200863095238096</v>
+        <v>0.03352678571428572</v>
       </c>
       <c r="E64">
-        <v>0.2347587301587301</v>
+        <v>0.3546875</v>
       </c>
       <c r="F64">
-        <v>0.4403161742702441</v>
+        <v>0.3254665443786748</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2367,13 +2367,13 @@
         <v>237</v>
       </c>
       <c r="D65">
-        <v>0.02255491071428571</v>
+        <v>0.0337797619047619</v>
       </c>
       <c r="E65">
-        <v>0.2368265625000001</v>
+        <v>0.3546875</v>
       </c>
       <c r="F65">
-        <v>0.4384249325167332</v>
+        <v>0.3250180476399447</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2384,13 +2384,13 @@
         <v>237</v>
       </c>
       <c r="D66">
-        <v>0.02314776785714286</v>
+        <v>0.03464285714285713</v>
       </c>
       <c r="E66">
-        <v>0.2393123076923077</v>
+        <v>0.3581538461538462</v>
       </c>
       <c r="F66">
-        <v>0.4362386256340302</v>
+        <v>0.3238734708722287</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2398,16 +2398,16 @@
         <v>71</v>
       </c>
       <c r="B67" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="D67">
-        <v>0.02393020833333333</v>
+        <v>0.03595238095238095</v>
       </c>
       <c r="E67">
-        <v>0.2402373134328358</v>
+        <v>0.366060606060606</v>
       </c>
       <c r="F67">
-        <v>0.4333420488174806</v>
+        <v>0.3223542484267352</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2415,16 +2415,16 @@
         <v>72</v>
       </c>
       <c r="B68" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="D68">
-        <v>0.02395223214285714</v>
+        <v>0.04299107142857143</v>
       </c>
       <c r="E68">
-        <v>0.2402373134328358</v>
+        <v>0.4267647058823529</v>
       </c>
       <c r="F68">
-        <v>0.4332771002575296</v>
+        <v>0.3150287169028459</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2435,13 +2435,13 @@
         <v>237</v>
       </c>
       <c r="D69">
-        <v>0.02513497023809524</v>
+        <v>0.04318452380952381</v>
       </c>
       <c r="E69">
-        <v>0.2483926470588235</v>
+        <v>0.4267647058823529</v>
       </c>
       <c r="F69">
-        <v>0.4292155398169332</v>
+        <v>0.3148579618523358</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2452,13 +2452,13 @@
         <v>237</v>
       </c>
       <c r="D70">
-        <v>0.02633005952380953</v>
+        <v>0.04702380952380952</v>
       </c>
       <c r="E70">
-        <v>0.2542685714285714</v>
+        <v>0.4557142857142857</v>
       </c>
       <c r="F70">
-        <v>0.4249839581102728</v>
+        <v>0.3119711921011311</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2466,16 +2466,16 @@
         <v>75</v>
       </c>
       <c r="B71" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D71">
-        <v>0.02648630952380953</v>
+        <v>0.04747023809523809</v>
       </c>
       <c r="E71">
-        <v>0.2542685714285714</v>
+        <v>0.4557142857142857</v>
       </c>
       <c r="F71">
-        <v>0.4245083617920592</v>
+        <v>0.3116534164787327</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2486,13 +2486,13 @@
         <v>237</v>
       </c>
       <c r="D72">
-        <v>0.02714389880952381</v>
+        <v>0.0512202380952381</v>
       </c>
       <c r="E72">
-        <v>0.2545415584415585</v>
+        <v>0.4847887323943662</v>
       </c>
       <c r="F72">
-        <v>0.4222826710601818</v>
+        <v>0.3086434848153837</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2503,13 +2503,13 @@
         <v>237</v>
       </c>
       <c r="D73">
-        <v>0.02808511904761905</v>
+        <v>0.05209821428571428</v>
       </c>
       <c r="E73">
-        <v>0.2545415584415585</v>
+        <v>0.48625</v>
       </c>
       <c r="F73">
-        <v>0.4191300458594289</v>
+        <v>0.307932490600648</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2517,16 +2517,16 @@
         <v>78</v>
       </c>
       <c r="B74" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="D74">
-        <v>0.02815699404761905</v>
+        <v>0.05604166666666666</v>
       </c>
       <c r="E74">
-        <v>0.2545415584415585</v>
+        <v>0.5098648648648648</v>
       </c>
       <c r="F74">
-        <v>0.418965296403122</v>
+        <v>0.3048589473974722</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2534,16 +2534,16 @@
         <v>79</v>
       </c>
       <c r="B75" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D75">
-        <v>0.02849880952380952</v>
+        <v>0.05614583333333333</v>
       </c>
       <c r="E75">
-        <v>0.2545415584415585</v>
+        <v>0.5098648648648648</v>
       </c>
       <c r="F75">
-        <v>0.4176010527765937</v>
+        <v>0.3047479749178531</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2554,13 +2554,13 @@
         <v>237</v>
       </c>
       <c r="D76">
-        <v>0.02878690476190476</v>
+        <v>0.06105654761904763</v>
       </c>
       <c r="E76">
-        <v>0.2545415584415585</v>
+        <v>0.5470666666666667</v>
       </c>
       <c r="F76">
-        <v>0.4166237467569899</v>
+        <v>0.3001612837189875</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2571,13 +2571,13 @@
         <v>237</v>
       </c>
       <c r="D77">
-        <v>0.02903407738095238</v>
+        <v>0.06264880952380952</v>
       </c>
       <c r="E77">
-        <v>0.2545415584415585</v>
+        <v>0.5476623376623377</v>
       </c>
       <c r="F77">
-        <v>0.4158396637055793</v>
+        <v>0.2986138567932454</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2585,16 +2585,16 @@
         <v>82</v>
       </c>
       <c r="B78" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="D78">
-        <v>0.02916622023809524</v>
+        <v>0.06275297619047619</v>
       </c>
       <c r="E78">
-        <v>0.2545415584415585</v>
+        <v>0.5476623376623377</v>
       </c>
       <c r="F78">
-        <v>0.4153444461326326</v>
+        <v>0.29845836521625</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2602,16 +2602,16 @@
         <v>83</v>
       </c>
       <c r="B79" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="D79">
-        <v>0.02963526785714286</v>
+        <v>0.06540178571428573</v>
       </c>
       <c r="E79">
-        <v>0.2553192307692307</v>
+        <v>0.5634615384615385</v>
       </c>
       <c r="F79">
-        <v>0.4139187370129054</v>
+        <v>0.2959737335185026</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2619,16 +2619,16 @@
         <v>84</v>
       </c>
       <c r="B80" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
       <c r="D80">
-        <v>0.03015074404761905</v>
+        <v>0.06677083333333332</v>
       </c>
       <c r="E80">
-        <v>0.25583375</v>
+        <v>0.5679746835443038</v>
       </c>
       <c r="F80">
-        <v>0.4122025214528213</v>
+        <v>0.2946320086087421</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2639,13 +2639,13 @@
         <v>237</v>
       </c>
       <c r="D81">
-        <v>0.0304563988095238</v>
+        <v>0.07029761904761905</v>
       </c>
       <c r="E81">
-        <v>0.25583375</v>
+        <v>0.5905</v>
       </c>
       <c r="F81">
-        <v>0.411152283655882</v>
+        <v>0.2906407002527097</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2653,16 +2653,16 @@
         <v>86</v>
       </c>
       <c r="B82" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="D82">
-        <v>0.0308467261904762</v>
+        <v>0.07200892857142857</v>
       </c>
       <c r="E82">
-        <v>0.2559135802469136</v>
+        <v>0.5974074074074074</v>
       </c>
       <c r="F82">
-        <v>0.4098254056910889</v>
+        <v>0.2888924796902873</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2673,13 +2673,13 @@
         <v>237</v>
       </c>
       <c r="D83">
-        <v>0.03123660714285714</v>
+        <v>0.0750297619047619</v>
       </c>
       <c r="E83">
-        <v>0.2559878048780488</v>
+        <v>0.6148780487804878</v>
       </c>
       <c r="F83">
-        <v>0.408535966955534</v>
+        <v>0.2852577030075044</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2687,16 +2687,16 @@
         <v>88</v>
       </c>
       <c r="B84" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="D84">
-        <v>0.03390104166666666</v>
+        <v>0.0800595238095238</v>
       </c>
       <c r="E84">
-        <v>0.2744759036144578</v>
+        <v>0.6410588235294118</v>
       </c>
       <c r="F84">
-        <v>0.400315272888881</v>
+        <v>0.2800764065089834</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2707,13 +2707,13 @@
         <v>237</v>
       </c>
       <c r="D85">
-        <v>0.03564821428571428</v>
+        <v>0.08075892857142856</v>
       </c>
       <c r="E85">
-        <v>0.2795860465116279</v>
+        <v>0.6410588235294118</v>
       </c>
       <c r="F85">
-        <v>0.3952546767509502</v>
+        <v>0.279367728642438</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2724,13 +2724,13 @@
         <v>237</v>
       </c>
       <c r="D86">
-        <v>0.03569702380952381</v>
+        <v>0.08108630952380952</v>
       </c>
       <c r="E86">
-        <v>0.2795860465116279</v>
+        <v>0.6410588235294118</v>
       </c>
       <c r="F86">
-        <v>0.3950824895057688</v>
+        <v>0.2790158440090957</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2738,16 +2738,16 @@
         <v>91</v>
       </c>
       <c r="B87" t="s">
-        <v>258</v>
+        <v>237</v>
       </c>
       <c r="D87">
-        <v>0.03578035714285713</v>
+        <v>0.08456845238095237</v>
       </c>
       <c r="E87">
-        <v>0.2795860465116279</v>
+        <v>0.6543678160919539</v>
       </c>
       <c r="F87">
-        <v>0.3948886177866553</v>
+        <v>0.2751472072263496</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2758,13 +2758,13 @@
         <v>237</v>
       </c>
       <c r="D88">
-        <v>0.03701175595238095</v>
+        <v>0.08471726190476191</v>
       </c>
       <c r="E88">
-        <v>0.285883908045977</v>
+        <v>0.6543678160919539</v>
       </c>
       <c r="F88">
-        <v>0.391350649283603</v>
+        <v>0.274983983950642</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2772,16 +2772,16 @@
         <v>93</v>
       </c>
       <c r="B89" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="D89">
-        <v>0.03849895833333333</v>
+        <v>0.088125</v>
       </c>
       <c r="E89">
-        <v>0.2939920454545454</v>
+        <v>0.6606666666666667</v>
       </c>
       <c r="F89">
-        <v>0.3874913507360235</v>
+        <v>0.2708227587751461</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2789,16 +2789,16 @@
         <v>94</v>
       </c>
       <c r="B90" t="s">
-        <v>259</v>
+        <v>237</v>
       </c>
       <c r="D90">
-        <v>0.04102440476190476</v>
+        <v>0.08821428571428573</v>
       </c>
       <c r="E90">
-        <v>0.3097573033707865</v>
+        <v>0.6606666666666667</v>
       </c>
       <c r="F90">
-        <v>0.3815955618888673</v>
+        <v>0.2707354916470123</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2806,16 +2806,16 @@
         <v>95</v>
       </c>
       <c r="B91" t="s">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="D91">
-        <v>0.04579806547619048</v>
+        <v>0.08848214285714286</v>
       </c>
       <c r="E91">
-        <v>0.3419588888888889</v>
+        <v>0.6606666666666667</v>
       </c>
       <c r="F91">
-        <v>0.3719956172086795</v>
+        <v>0.2703595265251605</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2823,16 +2823,16 @@
         <v>96</v>
       </c>
       <c r="B92" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="D92">
-        <v>0.04912053571428571</v>
+        <v>0.09077380952380952</v>
       </c>
       <c r="E92">
-        <v>0.3627362637362638</v>
+        <v>0.6663043478260868</v>
       </c>
       <c r="F92">
-        <v>0.365952894382139</v>
+        <v>0.2672763850785621</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2843,13 +2843,13 @@
         <v>237</v>
       </c>
       <c r="D93">
-        <v>0.05026160714285714</v>
+        <v>0.09122023809523808</v>
       </c>
       <c r="E93">
-        <v>0.3671282608695652</v>
+        <v>0.6663043478260868</v>
       </c>
       <c r="F93">
-        <v>0.3638917209188993</v>
+        <v>0.2665624805613141</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2857,16 +2857,16 @@
         <v>98</v>
       </c>
       <c r="B94" t="s">
-        <v>260</v>
+        <v>237</v>
       </c>
       <c r="D94">
-        <v>0.05216666666666667</v>
+        <v>0.09647321428571427</v>
       </c>
       <c r="E94">
-        <v>0.3743115789473685</v>
+        <v>0.6876923076923077</v>
       </c>
       <c r="F94">
-        <v>0.3606454928493635</v>
+        <v>0.2602976696339184</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2874,16 +2874,16 @@
         <v>99</v>
       </c>
       <c r="B95" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="D95">
-        <v>0.05280982142857143</v>
+        <v>0.1007589285714286</v>
       </c>
       <c r="E95">
-        <v>0.3743115789473685</v>
+        <v>0.6876923076923077</v>
       </c>
       <c r="F95">
-        <v>0.3596403900680206</v>
+        <v>0.2560575869647896</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2894,13 +2894,13 @@
         <v>237</v>
       </c>
       <c r="D96">
-        <v>0.05291607142857143</v>
+        <v>0.1008482142857143</v>
       </c>
       <c r="E96">
-        <v>0.3743115789473685</v>
+        <v>0.6876923076923077</v>
       </c>
       <c r="F96">
-        <v>0.3594596260350316</v>
+        <v>0.2560210677856882</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2908,16 +2908,16 @@
         <v>101</v>
       </c>
       <c r="B97" t="s">
-        <v>237</v>
+        <v>257</v>
       </c>
       <c r="D97">
-        <v>0.05452127976190476</v>
+        <v>0.100952380952381</v>
       </c>
       <c r="E97">
-        <v>0.3816489583333333</v>
+        <v>0.6876923076923077</v>
       </c>
       <c r="F97">
-        <v>0.3567000454471027</v>
+        <v>0.2559095239923489</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2928,13 +2928,13 @@
         <v>237</v>
       </c>
       <c r="D98">
-        <v>0.05600550595238095</v>
+        <v>0.1011607142857143</v>
       </c>
       <c r="E98">
-        <v>0.3879969072164949</v>
+        <v>0.6876923076923077</v>
       </c>
       <c r="F98">
-        <v>0.3544165018769287</v>
+        <v>0.2556784406642267</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2945,13 +2945,13 @@
         <v>237</v>
       </c>
       <c r="D99">
-        <v>0.06260104166666666</v>
+        <v>0.1018303571428571</v>
       </c>
       <c r="E99">
-        <v>0.4292642857142857</v>
+        <v>0.6876923076923077</v>
       </c>
       <c r="F99">
-        <v>0.3445009021796033</v>
+        <v>0.2551691431215556</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2962,13 +2962,13 @@
         <v>237</v>
       </c>
       <c r="D100">
-        <v>0.06741770833333334</v>
+        <v>0.1024553571428571</v>
       </c>
       <c r="E100">
-        <v>0.4576232323232324</v>
+        <v>0.6876923076923077</v>
       </c>
       <c r="F100">
-        <v>0.3377051020404188</v>
+        <v>0.2546004669941496</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2979,13 +2979,13 @@
         <v>237</v>
       </c>
       <c r="D101">
-        <v>0.06988705357142858</v>
+        <v>0.1036755952380952</v>
       </c>
       <c r="E101">
-        <v>0.469641</v>
+        <v>0.6876923076923077</v>
       </c>
       <c r="F101">
-        <v>0.3343418059173128</v>
+        <v>0.2537100672169465</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2993,16 +2993,16 @@
         <v>106</v>
       </c>
       <c r="B102" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="D102">
-        <v>0.07321904761904761</v>
+        <v>0.1052678571428572</v>
       </c>
       <c r="E102">
-        <v>0.4836166666666667</v>
+        <v>0.6876923076923077</v>
       </c>
       <c r="F102">
-        <v>0.3300438177534858</v>
+        <v>0.2525073450018461</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3010,16 +3010,16 @@
         <v>107</v>
       </c>
       <c r="B103" t="s">
-        <v>261</v>
+        <v>237</v>
       </c>
       <c r="D103">
-        <v>0.07340610119047619</v>
+        <v>0.1061309523809524</v>
       </c>
       <c r="E103">
-        <v>0.4836166666666667</v>
+        <v>0.6876923076923077</v>
       </c>
       <c r="F103">
-        <v>0.3298043508804517</v>
+        <v>0.2518004501985919</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3027,16 +3027,16 @@
         <v>108</v>
       </c>
       <c r="B104" t="s">
-        <v>262</v>
+        <v>237</v>
       </c>
       <c r="D104">
-        <v>0.07715758928571427</v>
+        <v>0.106264880952381</v>
       </c>
       <c r="E104">
-        <v>0.5025104761904762</v>
+        <v>0.6876923076923077</v>
       </c>
       <c r="F104">
-        <v>0.3248922072498542</v>
+        <v>0.2517118249480096</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3044,16 +3044,16 @@
         <v>109</v>
       </c>
       <c r="B105" t="s">
-        <v>263</v>
+        <v>237</v>
       </c>
       <c r="D105">
-        <v>0.07779449404761905</v>
+        <v>0.1064285714285714</v>
       </c>
       <c r="E105">
-        <v>0.5025104761904762</v>
+        <v>0.6876923076923077</v>
       </c>
       <c r="F105">
-        <v>0.3241089675250536</v>
+        <v>0.2516663072412889</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3064,13 +3064,13 @@
         <v>237</v>
       </c>
       <c r="D106">
-        <v>0.07851726190476191</v>
+        <v>0.1090327380952381</v>
       </c>
       <c r="E106">
-        <v>0.5025104761904762</v>
+        <v>0.6978095238095239</v>
       </c>
       <c r="F106">
-        <v>0.3232129956749792</v>
+        <v>0.249584886693157</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3078,16 +3078,16 @@
         <v>111</v>
       </c>
       <c r="B107" t="s">
-        <v>237</v>
+        <v>258</v>
       </c>
       <c r="D107">
-        <v>0.08025074404761905</v>
+        <v>0.1130208333333333</v>
       </c>
       <c r="E107">
-        <v>0.5087594339622642</v>
+        <v>0.7019266055045872</v>
       </c>
       <c r="F107">
-        <v>0.3210520191960923</v>
+        <v>0.2471120340804516</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3095,16 +3095,16 @@
         <v>112</v>
       </c>
       <c r="B108" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D108">
-        <v>0.08711056547619048</v>
+        <v>0.1131101190476191</v>
       </c>
       <c r="E108">
-        <v>0.5470869158878505</v>
+        <v>0.7019266055045872</v>
       </c>
       <c r="F108">
-        <v>0.3124843620473419</v>
+        <v>0.2470415619181218</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3115,13 +3115,13 @@
         <v>237</v>
       </c>
       <c r="D109">
-        <v>0.08899151785714286</v>
+        <v>0.1138392857142857</v>
       </c>
       <c r="E109">
-        <v>0.5475636363636364</v>
+        <v>0.7019266055045872</v>
       </c>
       <c r="F109">
-        <v>0.310103972253935</v>
+        <v>0.2466202365983323</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3129,16 +3129,16 @@
         <v>114</v>
       </c>
       <c r="B110" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D110">
-        <v>0.08921235119047619</v>
+        <v>0.1138541666666667</v>
       </c>
       <c r="E110">
-        <v>0.5475636363636364</v>
+        <v>0.7019266055045872</v>
       </c>
       <c r="F110">
-        <v>0.3098159110869429</v>
+        <v>0.2465945030227093</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3149,13 +3149,13 @@
         <v>237</v>
       </c>
       <c r="D111">
-        <v>0.08963095238095238</v>
+        <v>0.1155208333333334</v>
       </c>
       <c r="E111">
-        <v>0.5475636363636364</v>
+        <v>0.7019819819819819</v>
       </c>
       <c r="F111">
-        <v>0.3093003103350139</v>
+        <v>0.245486758557997</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3166,13 +3166,13 @@
         <v>237</v>
       </c>
       <c r="D112">
-        <v>0.0925125</v>
+        <v>0.1159523809523809</v>
       </c>
       <c r="E112">
-        <v>0.5600756756756756</v>
+        <v>0.7019819819819819</v>
       </c>
       <c r="F112">
-        <v>0.305689576774571</v>
+        <v>0.2452067707486563</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3180,16 +3180,16 @@
         <v>117</v>
       </c>
       <c r="B113" t="s">
-        <v>266</v>
+        <v>237</v>
       </c>
       <c r="D113">
-        <v>0.09506755952380952</v>
+        <v>0.1173660714285714</v>
       </c>
       <c r="E113">
-        <v>0.5704053571428571</v>
+        <v>0.7041964285714286</v>
       </c>
       <c r="F113">
-        <v>0.3024221568552001</v>
+        <v>0.2444526278889285</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3197,16 +3197,16 @@
         <v>118</v>
       </c>
       <c r="B114" t="s">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="D114">
-        <v>0.09766101190476192</v>
+        <v>0.1220386904761905</v>
       </c>
       <c r="E114">
-        <v>0.5807805309734513</v>
+        <v>0.7176521739130435</v>
       </c>
       <c r="F114">
-        <v>0.2992684821614083</v>
+        <v>0.2418995685792725</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3214,16 +3214,16 @@
         <v>119</v>
       </c>
       <c r="B115" t="s">
-        <v>237</v>
+        <v>262</v>
       </c>
       <c r="D115">
-        <v>0.09985699404761904</v>
+        <v>0.1226190476190476</v>
       </c>
       <c r="E115">
-        <v>0.586755652173913</v>
+        <v>0.7176521739130435</v>
       </c>
       <c r="F115">
-        <v>0.2964381514151189</v>
+        <v>0.2416139244211314</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3234,13 +3234,13 @@
         <v>237</v>
       </c>
       <c r="D116">
-        <v>0.1004120535714286</v>
+        <v>0.1228125</v>
       </c>
       <c r="E116">
-        <v>0.586755652173913</v>
+        <v>0.7176521739130435</v>
       </c>
       <c r="F116">
-        <v>0.2958896548560549</v>
+        <v>0.2415172325556262</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3248,16 +3248,16 @@
         <v>121</v>
       </c>
       <c r="B117" t="s">
-        <v>237</v>
+        <v>263</v>
       </c>
       <c r="D117">
-        <v>0.1018372023809524</v>
+        <v>0.1257440476190476</v>
       </c>
       <c r="E117">
-        <v>0.589953448275862</v>
+        <v>0.7284482758620692</v>
       </c>
       <c r="F117">
-        <v>0.2940111530702814</v>
+        <v>0.2398826004846989</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3268,13 +3268,13 @@
         <v>237</v>
       </c>
       <c r="D118">
-        <v>0.1143034226190476</v>
+        <v>0.1338392857142857</v>
       </c>
       <c r="E118">
-        <v>0.6535950413223139</v>
+        <v>0.7687179487179487</v>
       </c>
       <c r="F118">
-        <v>0.2797203970751713</v>
+        <v>0.2361424723259662</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3285,13 +3285,13 @@
         <v>237</v>
       </c>
       <c r="D119">
-        <v>0.1159819940476191</v>
+        <v>0.1352083333333333</v>
       </c>
       <c r="E119">
-        <v>0.6535950413223139</v>
+        <v>0.7700000000000001</v>
       </c>
       <c r="F119">
-        <v>0.2778402843999356</v>
+        <v>0.235432652839329</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3299,16 +3299,16 @@
         <v>124</v>
       </c>
       <c r="B120" t="s">
-        <v>267</v>
+        <v>237</v>
       </c>
       <c r="D120">
-        <v>0.1171376488095238</v>
+        <v>0.1405952380952381</v>
       </c>
       <c r="E120">
-        <v>0.6535950413223139</v>
+        <v>0.7939495798319328</v>
       </c>
       <c r="F120">
-        <v>0.2765535220663749</v>
+        <v>0.2330667561498978</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3316,16 +3316,16 @@
         <v>125</v>
       </c>
       <c r="B121" t="s">
-        <v>237</v>
+        <v>264</v>
       </c>
       <c r="D121">
-        <v>0.1174020833333334</v>
+        <v>0.1430654761904762</v>
       </c>
       <c r="E121">
-        <v>0.6535950413223139</v>
+        <v>0.8011666666666666</v>
       </c>
       <c r="F121">
-        <v>0.2763218096544051</v>
+        <v>0.231985452450379</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3333,16 +3333,16 @@
         <v>126</v>
       </c>
       <c r="B122" t="s">
-        <v>237</v>
+        <v>265</v>
       </c>
       <c r="D122">
-        <v>0.1176860119047619</v>
+        <v>0.1502678571428571</v>
       </c>
       <c r="E122">
-        <v>0.6535950413223139</v>
+        <v>0.8327049180327869</v>
       </c>
       <c r="F122">
-        <v>0.2760246446832139</v>
+        <v>0.2288125848950575</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3353,13 +3353,13 @@
         <v>237</v>
       </c>
       <c r="D123">
-        <v>0.1196861607142857</v>
+        <v>0.1511755952380953</v>
       </c>
       <c r="E123">
-        <v>0.6549032520325204</v>
+        <v>0.8327049180327869</v>
       </c>
       <c r="F123">
-        <v>0.2738168315756692</v>
+        <v>0.2284734657248903</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3367,16 +3367,16 @@
         <v>128</v>
       </c>
       <c r="B124" t="s">
-        <v>237</v>
+        <v>266</v>
       </c>
       <c r="D124">
-        <v>0.1198706845238095</v>
+        <v>0.1547767857142857</v>
       </c>
       <c r="E124">
-        <v>0.6549032520325204</v>
+        <v>0.8456097560975611</v>
       </c>
       <c r="F124">
-        <v>0.2736695628984691</v>
+        <v>0.2268699625026175</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3384,16 +3384,16 @@
         <v>129</v>
       </c>
       <c r="B125" t="s">
-        <v>237</v>
+        <v>267</v>
       </c>
       <c r="D125">
-        <v>0.1250433035714285</v>
+        <v>0.1564732142857143</v>
       </c>
       <c r="E125">
-        <v>0.6707653543307087</v>
+        <v>0.8463200000000001</v>
       </c>
       <c r="F125">
-        <v>0.2680584731706774</v>
+        <v>0.2259576711911286</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3401,16 +3401,16 @@
         <v>130</v>
       </c>
       <c r="B126" t="s">
-        <v>268</v>
+        <v>237</v>
       </c>
       <c r="D126">
-        <v>0.1261113095238095</v>
+        <v>0.1574255952380952</v>
       </c>
       <c r="E126">
-        <v>0.6707653543307087</v>
+        <v>0.8463200000000001</v>
       </c>
       <c r="F126">
-        <v>0.2668630071332293</v>
+        <v>0.2253394377825841</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3421,13 +3421,13 @@
         <v>237</v>
       </c>
       <c r="D127">
-        <v>0.1265648809523809</v>
+        <v>0.1689732142857143</v>
       </c>
       <c r="E127">
-        <v>0.6707653543307087</v>
+        <v>0.8962204724409449</v>
       </c>
       <c r="F127">
-        <v>0.2664390626668212</v>
+        <v>0.2184596057603071</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3435,16 +3435,16 @@
         <v>132</v>
       </c>
       <c r="B128" t="s">
-        <v>237</v>
+        <v>268</v>
       </c>
       <c r="D128">
-        <v>0.1267666666666667</v>
+        <v>0.169375</v>
       </c>
       <c r="E128">
-        <v>0.6707653543307087</v>
+        <v>0.8962204724409449</v>
       </c>
       <c r="F128">
-        <v>0.2662401156038084</v>
+        <v>0.2181463864431394</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3452,16 +3452,16 @@
         <v>133</v>
       </c>
       <c r="B129" t="s">
-        <v>269</v>
+        <v>237</v>
       </c>
       <c r="D129">
-        <v>0.1302151785714286</v>
+        <v>0.1740476190476191</v>
       </c>
       <c r="E129">
-        <v>0.6805868217054263</v>
+        <v>0.91375</v>
       </c>
       <c r="F129">
-        <v>0.2625373450086919</v>
+        <v>0.21493588598184</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3469,16 +3469,16 @@
         <v>134</v>
       </c>
       <c r="B130" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="D130">
-        <v>0.1306483630952381</v>
+        <v>0.1758779761904762</v>
       </c>
       <c r="E130">
-        <v>0.6805868217054263</v>
+        <v>0.9162015503875968</v>
       </c>
       <c r="F130">
-        <v>0.2621283563389787</v>
+        <v>0.2138397005762433</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3486,16 +3486,16 @@
         <v>135</v>
       </c>
       <c r="B131" t="s">
-        <v>270</v>
+        <v>237</v>
       </c>
       <c r="D131">
-        <v>0.1373412202380953</v>
+        <v>0.1807589285714286</v>
       </c>
       <c r="E131">
-        <v>0.7069312977099236</v>
+        <v>0.9343846153846154</v>
       </c>
       <c r="F131">
-        <v>0.2551913812651363</v>
+        <v>0.2106146801472071</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3506,13 +3506,13 @@
         <v>237</v>
       </c>
       <c r="D132">
-        <v>0.1378095238095238</v>
+        <v>0.1843452380952381</v>
       </c>
       <c r="E132">
-        <v>0.7069312977099236</v>
+        <v>0.945648854961832</v>
       </c>
       <c r="F132">
-        <v>0.2547862469780175</v>
+        <v>0.2081469508148735</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3523,13 +3523,13 @@
         <v>237</v>
       </c>
       <c r="D133">
-        <v>0.1491107142857143</v>
+        <v>0.1859821428571428</v>
       </c>
       <c r="E133">
-        <v>0.7548451127819549</v>
+        <v>0.9468181818181818</v>
       </c>
       <c r="F133">
-        <v>0.2437362163735525</v>
+        <v>0.2072412162209774</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3537,16 +3537,16 @@
         <v>138</v>
       </c>
       <c r="B134" t="s">
-        <v>237</v>
+        <v>270</v>
       </c>
       <c r="D134">
-        <v>0.1493964285714285</v>
+        <v>0.1878273809523809</v>
       </c>
       <c r="E134">
-        <v>0.7548451127819549</v>
+        <v>0.9490225563909774</v>
       </c>
       <c r="F134">
-        <v>0.2434422249559285</v>
+        <v>0.2059870938422501</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3557,13 +3557,13 @@
         <v>237</v>
       </c>
       <c r="D135">
-        <v>0.1562282738095238</v>
+        <v>0.190639880952381</v>
       </c>
       <c r="E135">
-        <v>0.7834731343283582</v>
+        <v>0.9495588235294116</v>
       </c>
       <c r="F135">
-        <v>0.2371282689121727</v>
+        <v>0.2043469104242893</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3574,13 +3574,13 @@
         <v>237</v>
       </c>
       <c r="D136">
-        <v>0.1588238095238095</v>
+        <v>0.1908184523809524</v>
       </c>
       <c r="E136">
-        <v>0.7905896296296296</v>
+        <v>0.9495588235294116</v>
       </c>
       <c r="F136">
-        <v>0.2348506257504878</v>
+        <v>0.2041979983223475</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3591,13 +3591,13 @@
         <v>237</v>
       </c>
       <c r="D137">
-        <v>0.1638151785714286</v>
+        <v>0.192172619047619</v>
       </c>
       <c r="E137">
-        <v>0.8082467153284671</v>
+        <v>0.9495588235294116</v>
       </c>
       <c r="F137">
-        <v>0.2307906399565783</v>
+        <v>0.2033028411971793</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3608,13 +3608,13 @@
         <v>237</v>
       </c>
       <c r="D138">
-        <v>0.1647764880952381</v>
+        <v>0.1976041666666666</v>
       </c>
       <c r="E138">
-        <v>0.8082467153284671</v>
+        <v>0.9692028985507246</v>
       </c>
       <c r="F138">
-        <v>0.2300316682333963</v>
+        <v>0.1999898462964876</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3625,13 +3625,13 @@
         <v>237</v>
       </c>
       <c r="D139">
-        <v>0.1707461309523809</v>
+        <v>0.1990327380952381</v>
       </c>
       <c r="E139">
-        <v>0.8303589928057555</v>
+        <v>0.9692028985507246</v>
       </c>
       <c r="F139">
-        <v>0.2252174684256194</v>
+        <v>0.1993420888333272</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3639,16 +3639,16 @@
         <v>144</v>
       </c>
       <c r="B140" t="s">
-        <v>237</v>
+        <v>271</v>
       </c>
       <c r="D140">
-        <v>0.1717558035714286</v>
+        <v>0.2041369047619048</v>
       </c>
       <c r="E140">
-        <v>0.8303589928057555</v>
+        <v>0.9814482758620688</v>
       </c>
       <c r="F140">
-        <v>0.2244356077150495</v>
+        <v>0.1964323827161253</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3659,13 +3659,13 @@
         <v>237</v>
       </c>
       <c r="D141">
-        <v>0.173399255952381</v>
+        <v>0.2053720238095238</v>
       </c>
       <c r="E141">
-        <v>0.8323164285714285</v>
+        <v>0.9814482758620688</v>
       </c>
       <c r="F141">
-        <v>0.2232643877050834</v>
+        <v>0.1958147345712793</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3676,13 +3676,13 @@
         <v>237</v>
       </c>
       <c r="D142">
-        <v>0.174747619047619</v>
+        <v>0.2061755952380953</v>
       </c>
       <c r="E142">
-        <v>0.8328397163120567</v>
+        <v>0.9814482758620688</v>
       </c>
       <c r="F142">
-        <v>0.2221818165511145</v>
+        <v>0.1953531461651506</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3690,16 +3690,16 @@
         <v>147</v>
       </c>
       <c r="B143" t="s">
-        <v>237</v>
+        <v>272</v>
       </c>
       <c r="D143">
-        <v>0.1804191964285715</v>
+        <v>0.2075892857142857</v>
       </c>
       <c r="E143">
-        <v>0.8449666666666666</v>
+        <v>0.9814482758620688</v>
       </c>
       <c r="F143">
-        <v>0.2180834981993572</v>
+        <v>0.1944900768471553</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3710,13 +3710,13 @@
         <v>237</v>
       </c>
       <c r="D144">
-        <v>0.1809092261904762</v>
+        <v>0.2106398809523809</v>
       </c>
       <c r="E144">
-        <v>0.8449666666666666</v>
+        <v>0.9814482758620688</v>
       </c>
       <c r="F144">
-        <v>0.2177011694136579</v>
+        <v>0.1927200449891264</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3724,33 +3724,30 @@
         <v>149</v>
       </c>
       <c r="B145" t="s">
-        <v>237</v>
+        <v>273</v>
       </c>
       <c r="D145">
-        <v>0.1810642857142857</v>
+        <v>0.2108333333333333</v>
       </c>
       <c r="E145">
-        <v>0.8449666666666666</v>
+        <v>0.9814482758620688</v>
       </c>
       <c r="F145">
-        <v>0.2175988974087714</v>
+        <v>0.1925987862683725</v>
       </c>
     </row>
     <row r="146" spans="1:6">
       <c r="A146" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B146" t="s">
-        <v>237</v>
-      </c>
       <c r="D146">
-        <v>0.1849879464285714</v>
+        <v>0.2117708333333333</v>
       </c>
       <c r="E146">
-        <v>0.8528554794520549</v>
+        <v>0.9814482758620688</v>
       </c>
       <c r="F146">
-        <v>0.2147232692440892</v>
+        <v>0.1921228990092655</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3761,13 +3758,13 @@
         <v>237</v>
       </c>
       <c r="D147">
-        <v>0.185293005952381</v>
+        <v>0.2145535714285715</v>
       </c>
       <c r="E147">
-        <v>0.8528554794520549</v>
+        <v>0.9838095238095238</v>
       </c>
       <c r="F147">
-        <v>0.2145150195565519</v>
+        <v>0.190617491777547</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3778,13 +3775,13 @@
         <v>237</v>
       </c>
       <c r="D148">
-        <v>0.1945642857142857</v>
+        <v>0.2152083333333333</v>
       </c>
       <c r="E148">
-        <v>0.8837743243243243</v>
+        <v>0.9838095238095238</v>
       </c>
       <c r="F148">
-        <v>0.2080032825080922</v>
+        <v>0.1902694492912491</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3795,13 +3792,13 @@
         <v>237</v>
       </c>
       <c r="D149">
-        <v>0.1946407738095238</v>
+        <v>0.2223065476190476</v>
       </c>
       <c r="E149">
-        <v>0.8837743243243243</v>
+        <v>0.9954476190476189</v>
       </c>
       <c r="F149">
-        <v>0.2079631605296275</v>
+        <v>0.1865057496626699</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3812,13 +3809,13 @@
         <v>237</v>
       </c>
       <c r="D150">
-        <v>0.2006552083333333</v>
+        <v>0.2239880952380952</v>
       </c>
       <c r="E150">
-        <v>0.9049684563758391</v>
+        <v>0.9951908396946564</v>
       </c>
       <c r="F150">
-        <v>0.203678462782636</v>
+        <v>0.1856961623959335</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3829,13 +3826,13 @@
         <v>237</v>
       </c>
       <c r="D151">
-        <v>0.2117099702380953</v>
+        <v>0.2292113095238096</v>
       </c>
       <c r="E151">
-        <v>0.9484606666666666</v>
+        <v>0.9903824091778204</v>
       </c>
       <c r="F151">
-        <v>0.1957920794475353</v>
+        <v>0.1831600637129807</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3846,13 +3843,13 @@
         <v>237</v>
       </c>
       <c r="D152">
-        <v>0.2194342261904762</v>
+        <v>0.2310267857142857</v>
       </c>
       <c r="E152">
-        <v>0.9765549668874172</v>
+        <v>0.9899425287356322</v>
       </c>
       <c r="F152">
-        <v>0.1902572607295847</v>
+        <v>0.1824566059088732</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3860,16 +3857,16 @@
         <v>157</v>
       </c>
       <c r="B153" t="s">
-        <v>237</v>
+        <v>274</v>
       </c>
       <c r="D153">
-        <v>0.2225388392857143</v>
+        <v>0.2353273809523809</v>
       </c>
       <c r="E153">
-        <v>0.9838559210526316</v>
+        <v>0.986295585412668</v>
       </c>
       <c r="F153">
-        <v>0.1879707024090513</v>
+        <v>0.1804551516204504</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3877,16 +3874,16 @@
         <v>158</v>
       </c>
       <c r="B154" t="s">
-        <v>237</v>
+        <v>275</v>
       </c>
       <c r="D154">
-        <v>0.2245440476190476</v>
+        <v>0.2410863095238095</v>
       </c>
       <c r="E154">
-        <v>0.986232679738562</v>
+        <v>0.98075</v>
       </c>
       <c r="F154">
-        <v>0.1863899679886885</v>
+        <v>0.1777834124194263</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3897,13 +3894,13 @@
         <v>237</v>
       </c>
       <c r="D155">
-        <v>0.2290379464285714</v>
+        <v>0.2431994047619048</v>
       </c>
       <c r="E155">
-        <v>0.9941296774193548</v>
+        <v>0.97990366088632</v>
       </c>
       <c r="F155">
-        <v>0.183266162418622</v>
+        <v>0.1767319849173282</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3914,13 +3911,13 @@
         <v>237</v>
       </c>
       <c r="D156">
-        <v>0.229300744047619</v>
+        <v>0.2482886904761905</v>
       </c>
       <c r="E156">
-        <v>0.9941296774193548</v>
+        <v>0.97519305019305</v>
       </c>
       <c r="F156">
-        <v>0.1830999648570442</v>
+        <v>0.1744059517617955</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3931,13 +3928,13 @@
         <v>237</v>
       </c>
       <c r="D157">
-        <v>0.2321474702380953</v>
+        <v>0.2511607142857143</v>
       </c>
       <c r="E157">
-        <v>0.9980663442940038</v>
+        <v>0.9733462282398452</v>
       </c>
       <c r="F157">
-        <v>0.1809390957048473</v>
+        <v>0.1731864343042893</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3948,13 +3945,13 @@
         <v>237</v>
       </c>
       <c r="D158">
-        <v>0.2416699404761905</v>
+        <v>0.2512053571428571</v>
       </c>
       <c r="E158">
-        <v>0.9875978682170542</v>
+        <v>0.9733462282398452</v>
       </c>
       <c r="F158">
-        <v>0.1739754212585363</v>
+        <v>0.1731361606371351</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3965,13 +3962,13 @@
         <v>237</v>
       </c>
       <c r="D159">
-        <v>0.2422880952380952</v>
+        <v>0.2524702380952381</v>
       </c>
       <c r="E159">
-        <v>0.9875978682170542</v>
+        <v>0.9733462282398452</v>
       </c>
       <c r="F159">
-        <v>0.1735129648767909</v>
+        <v>0.1726574858081451</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3982,13 +3979,13 @@
         <v>237</v>
       </c>
       <c r="D160">
-        <v>0.2478793154761905</v>
+        <v>0.2544047619047619</v>
       </c>
       <c r="E160">
-        <v>0.983318093385214</v>
+        <v>0.9733462282398452</v>
       </c>
       <c r="F160">
-        <v>0.1695887592232201</v>
+        <v>0.1718727192057935</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3996,16 +3993,16 @@
         <v>165</v>
       </c>
       <c r="B161" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
       <c r="D161">
-        <v>0.2489016369047619</v>
+        <v>0.2569791666666666</v>
       </c>
       <c r="E161">
-        <v>0.983318093385214</v>
+        <v>0.9733138401559456</v>
       </c>
       <c r="F161">
-        <v>0.1688574470260115</v>
+        <v>0.1707666479322371</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4016,13 +4013,13 @@
         <v>237</v>
       </c>
       <c r="D162">
-        <v>0.2521467261904762</v>
+        <v>0.2581696428571428</v>
       </c>
       <c r="E162">
-        <v>0.9815630859375</v>
+        <v>0.9733138401559456</v>
       </c>
       <c r="F162">
-        <v>0.1666156781330479</v>
+        <v>0.1702574765972672</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4033,13 +4030,13 @@
         <v>237</v>
       </c>
       <c r="D163">
-        <v>0.2545994047619047</v>
+        <v>0.2647916666666666</v>
       </c>
       <c r="E163">
-        <v>0.980254011741683</v>
+        <v>0.9668493150684933</v>
       </c>
       <c r="F163">
-        <v>0.1649482709947707</v>
+        <v>0.1677143541454819</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4047,16 +4044,16 @@
         <v>168</v>
       </c>
       <c r="B164" t="s">
-        <v>237</v>
+        <v>276</v>
       </c>
       <c r="D164">
-        <v>0.2756683035714286</v>
+        <v>0.2678571428571428</v>
       </c>
       <c r="E164">
-        <v>0.9544141176470587</v>
+        <v>0.9647058823529412</v>
       </c>
       <c r="F164">
-        <v>0.1513446911249797</v>
+        <v>0.166461158988106</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4067,13 +4064,13 @@
         <v>237</v>
       </c>
       <c r="D165">
-        <v>0.2789541666666667</v>
+        <v>0.2685863095238095</v>
       </c>
       <c r="E165">
-        <v>0.9519536345776032</v>
+        <v>0.9647058823529412</v>
       </c>
       <c r="F165">
-        <v>0.1493534859353756</v>
+        <v>0.1661458153832571</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4084,13 +4081,13 @@
         <v>237</v>
       </c>
       <c r="D166">
-        <v>0.2880760416666667</v>
+        <v>0.2732142857142857</v>
       </c>
       <c r="E166">
-        <v>0.9417576771653544</v>
+        <v>0.9614173228346456</v>
       </c>
       <c r="F166">
-        <v>0.1437135771955065</v>
+        <v>0.1644249963765707</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4101,13 +4098,13 @@
         <v>237</v>
       </c>
       <c r="D167">
-        <v>0.2898625</v>
+        <v>0.2741220238095238</v>
       </c>
       <c r="E167">
-        <v>0.941247731755424</v>
+        <v>0.9614173228346456</v>
       </c>
       <c r="F167">
-        <v>0.1425702330617705</v>
+        <v>0.1640343072224485</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4118,13 +4115,13 @@
         <v>237</v>
       </c>
       <c r="D168">
-        <v>0.2916142857142857</v>
+        <v>0.2754761904761905</v>
       </c>
       <c r="E168">
-        <v>0.9407833992094859</v>
+        <v>0.9614173228346456</v>
       </c>
       <c r="F168">
-        <v>0.141514040150991</v>
+        <v>0.1636021709936771</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4135,13 +4132,13 @@
         <v>237</v>
       </c>
       <c r="D169">
-        <v>0.291991369047619</v>
+        <v>0.2824107142857143</v>
       </c>
       <c r="E169">
-        <v>0.9407833992094859</v>
+        <v>0.9548910891089109</v>
       </c>
       <c r="F169">
-        <v>0.1412350353181274</v>
+        <v>0.1611735937655082</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4149,16 +4146,16 @@
         <v>174</v>
       </c>
       <c r="B170" t="s">
-        <v>237</v>
+        <v>277</v>
       </c>
       <c r="D170">
-        <v>0.2924227678571429</v>
+        <v>0.2828869047619048</v>
       </c>
       <c r="E170">
-        <v>0.9407833992094859</v>
+        <v>0.9548910891089109</v>
       </c>
       <c r="F170">
-        <v>0.1409826284990993</v>
+        <v>0.1610269608881346</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4169,13 +4166,13 @@
         <v>237</v>
       </c>
       <c r="D171">
-        <v>0.2958351190476191</v>
+        <v>0.2913392857142857</v>
       </c>
       <c r="E171">
-        <v>0.9407568588469184</v>
+        <v>0.9467594433399604</v>
       </c>
       <c r="F171">
-        <v>0.1389423442207632</v>
+        <v>0.1586309052479785</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4183,16 +4180,16 @@
         <v>176</v>
       </c>
       <c r="B172" t="s">
-        <v>272</v>
+        <v>237</v>
       </c>
       <c r="D172">
-        <v>0.2991644345238095</v>
+        <v>0.2914732142857143</v>
       </c>
       <c r="E172">
-        <v>0.9381719123505976</v>
+        <v>0.9467594433399604</v>
       </c>
       <c r="F172">
-        <v>0.1369043201962944</v>
+        <v>0.1585808895074252</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4203,13 +4200,13 @@
         <v>237</v>
       </c>
       <c r="D173">
-        <v>0.2996424107142857</v>
+        <v>0.3044196428571428</v>
       </c>
       <c r="E173">
-        <v>0.9381719123505976</v>
+        <v>0.932994011976048</v>
       </c>
       <c r="F173">
-        <v>0.1366430759785221</v>
+        <v>0.1551085840706458</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4220,13 +4217,13 @@
         <v>237</v>
       </c>
       <c r="D174">
-        <v>0.3029177083333333</v>
+        <v>0.3171428571428571</v>
       </c>
       <c r="E174">
-        <v>0.9368799999999999</v>
+        <v>0.91776</v>
       </c>
       <c r="F174">
-        <v>0.1344190617726493</v>
+        <v>0.1520898903427653</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4237,13 +4234,13 @@
         <v>237</v>
       </c>
       <c r="D175">
-        <v>0.3035258928571429</v>
+        <v>0.3187202380952381</v>
       </c>
       <c r="E175">
-        <v>0.9368799999999999</v>
+        <v>0.9174749498997996</v>
       </c>
       <c r="F175">
-        <v>0.1340489201723714</v>
+        <v>0.1516219748178353</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4251,16 +4248,16 @@
         <v>180</v>
       </c>
       <c r="B176" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="D176">
-        <v>0.3044891369047619</v>
+        <v>0.3274404761904762</v>
       </c>
       <c r="E176">
-        <v>0.9368799999999999</v>
+        <v>0.9075502008032128</v>
       </c>
       <c r="F176">
-        <v>0.1333639368338269</v>
+        <v>0.1494782186793024</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4268,16 +4265,16 @@
         <v>181</v>
       </c>
       <c r="B177" t="s">
-        <v>273</v>
+        <v>237</v>
       </c>
       <c r="D177">
-        <v>0.3049171130952381</v>
+        <v>0.3300595238095238</v>
       </c>
       <c r="E177">
-        <v>0.9368799999999999</v>
+        <v>0.905835010060362</v>
       </c>
       <c r="F177">
-        <v>0.1331045467759655</v>
+        <v>0.1487506457467065</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4288,13 +4285,13 @@
         <v>237</v>
       </c>
       <c r="D178">
-        <v>0.3073508928571428</v>
+        <v>0.3342708333333333</v>
       </c>
       <c r="E178">
-        <v>0.9368799999999999</v>
+        <v>0.9019556451612905</v>
       </c>
       <c r="F178">
-        <v>0.1316204188186705</v>
+        <v>0.1472498235683183</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4305,13 +4302,13 @@
         <v>237</v>
       </c>
       <c r="D179">
-        <v>0.3074245535714286</v>
+        <v>0.3391666666666667</v>
       </c>
       <c r="E179">
-        <v>0.9368799999999999</v>
+        <v>0.8971313131313131</v>
       </c>
       <c r="F179">
-        <v>0.1315825320245483</v>
+        <v>0.1454107398785134</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4322,13 +4319,13 @@
         <v>237</v>
       </c>
       <c r="D180">
-        <v>0.3149705357142857</v>
+        <v>0.3408333333333333</v>
       </c>
       <c r="E180">
-        <v>0.9318629554655871</v>
+        <v>0.8966801619433198</v>
       </c>
       <c r="F180">
-        <v>0.1267237399518812</v>
+        <v>0.1446586840779413</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4339,13 +4336,13 @@
         <v>237</v>
       </c>
       <c r="D181">
-        <v>0.3227641369047619</v>
+        <v>0.3419196428571429</v>
       </c>
       <c r="E181">
-        <v>0.9231304259634888</v>
+        <v>0.8966801619433198</v>
       </c>
       <c r="F181">
-        <v>0.1214718351753823</v>
+        <v>0.1441474373030223</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4356,13 +4353,13 @@
         <v>237</v>
       </c>
       <c r="D182">
-        <v>0.3282331845238095</v>
+        <v>0.3514732142857143</v>
       </c>
       <c r="E182">
-        <v>0.917535975609756</v>
+        <v>0.8857926829268293</v>
       </c>
       <c r="F182">
-        <v>0.1178162123734254</v>
+        <v>0.1397220231014583</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4370,16 +4367,16 @@
         <v>187</v>
       </c>
       <c r="B183" t="s">
-        <v>274</v>
+        <v>237</v>
       </c>
       <c r="D183">
-        <v>0.3295129464285714</v>
+        <v>0.3542410714285714</v>
       </c>
       <c r="E183">
-        <v>0.917535975609756</v>
+        <v>0.8838085539714868</v>
       </c>
       <c r="F183">
-        <v>0.116888609135276</v>
+        <v>0.138220296141906</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4390,13 +4387,13 @@
         <v>237</v>
       </c>
       <c r="D184">
-        <v>0.3357739583333333</v>
+        <v>0.3569642857142857</v>
       </c>
       <c r="E184">
-        <v>0.9109420408163266</v>
+        <v>0.8818775510204082</v>
       </c>
       <c r="F184">
-        <v>0.1124828027039923</v>
+        <v>0.1367384468212585</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4407,13 +4404,13 @@
         <v>237</v>
       </c>
       <c r="D185">
-        <v>0.3370337797619047</v>
+        <v>0.3621577380952381</v>
       </c>
       <c r="E185">
-        <v>0.9109420408163266</v>
+        <v>0.8765439672801636</v>
       </c>
       <c r="F185">
-        <v>0.1114694964127703</v>
+        <v>0.134327425646663</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4424,13 +4421,13 @@
         <v>237</v>
       </c>
       <c r="D186">
-        <v>0.3375918154761905</v>
+        <v>0.3633035714285714</v>
       </c>
       <c r="E186">
-        <v>0.9109420408163266</v>
+        <v>0.8765439672801636</v>
       </c>
       <c r="F186">
-        <v>0.1110687975747463</v>
+        <v>0.1337606185105897</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4441,13 +4438,13 @@
         <v>237</v>
       </c>
       <c r="D187">
-        <v>0.35078125</v>
+        <v>0.3647767857142857</v>
       </c>
       <c r="E187">
-        <v>0.8958429158110883</v>
+        <v>0.87652977412731</v>
       </c>
       <c r="F187">
-        <v>0.1015817364155492</v>
+        <v>0.1330708206872009</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4458,13 +4455,13 @@
         <v>237</v>
       </c>
       <c r="D188">
-        <v>0.3514916666666666</v>
+        <v>0.3689880952380952</v>
       </c>
       <c r="E188">
-        <v>0.8958429158110883</v>
+        <v>0.8725102880658436</v>
       </c>
       <c r="F188">
-        <v>0.1009769880225995</v>
+        <v>0.1312901976751721</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4475,13 +4472,13 @@
         <v>237</v>
       </c>
       <c r="D189">
-        <v>0.3582940476190476</v>
+        <v>0.3703571428571429</v>
       </c>
       <c r="E189">
-        <v>0.8891265979381444</v>
+        <v>0.8724123711340207</v>
       </c>
       <c r="F189">
-        <v>0.09610481027325801</v>
+        <v>0.1307094356371948</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4489,16 +4486,16 @@
         <v>194</v>
       </c>
       <c r="B190" t="s">
-        <v>237</v>
+        <v>278</v>
       </c>
       <c r="D190">
-        <v>0.3596854166666666</v>
+        <v>0.3726041666666667</v>
       </c>
       <c r="E190">
-        <v>0.8890324380165291</v>
+        <v>0.8710950413223141</v>
       </c>
       <c r="F190">
-        <v>0.09503746704974454</v>
+        <v>0.1295102570103586</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4509,13 +4506,13 @@
         <v>237</v>
       </c>
       <c r="D191">
-        <v>0.3621863095238096</v>
+        <v>0.3738839285714285</v>
       </c>
       <c r="E191">
-        <v>0.8873948240165631</v>
+        <v>0.8710950413223141</v>
       </c>
       <c r="F191">
-        <v>0.09327827367178904</v>
+        <v>0.1287760227675815</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4526,13 +4523,13 @@
         <v>237</v>
       </c>
       <c r="D192">
-        <v>0.3721482142857143</v>
+        <v>0.3740922619047619</v>
       </c>
       <c r="E192">
-        <v>0.8753452282157675</v>
+        <v>0.8710950413223141</v>
       </c>
       <c r="F192">
-        <v>0.08618980230526174</v>
+        <v>0.1286623050246961</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4543,13 +4540,13 @@
         <v>237</v>
       </c>
       <c r="D193">
-        <v>0.3722514880952381</v>
+        <v>0.3777678571428572</v>
       </c>
       <c r="E193">
-        <v>0.8753452282157675</v>
+        <v>0.8693139293139294</v>
       </c>
       <c r="F193">
-        <v>0.08613349552360175</v>
+        <v>0.1270642707632273</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4560,13 +4557,13 @@
         <v>237</v>
       </c>
       <c r="D194">
-        <v>0.3776377976190477</v>
+        <v>0.3784672619047619</v>
       </c>
       <c r="E194">
-        <v>0.87131125</v>
+        <v>0.8693139293139294</v>
       </c>
       <c r="F194">
-        <v>0.08233187243390064</v>
+        <v>0.1267523222813619</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4577,13 +4574,13 @@
         <v>237</v>
       </c>
       <c r="D195">
-        <v>0.3799629464285714</v>
+        <v>0.3856398809523809</v>
       </c>
       <c r="E195">
-        <v>0.8698720250521921</v>
+        <v>0.8618997912317327</v>
       </c>
       <c r="F195">
-        <v>0.08066150122251851</v>
+        <v>0.1233296025234128</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4594,13 +4591,13 @@
         <v>237</v>
       </c>
       <c r="D196">
-        <v>0.3804569940476191</v>
+        <v>0.3887202380952381</v>
       </c>
       <c r="E196">
-        <v>0.8698720250521921</v>
+        <v>0.8593723849372384</v>
       </c>
       <c r="F196">
-        <v>0.08035115491606556</v>
+        <v>0.1214606898629026</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4608,16 +4605,16 @@
         <v>201</v>
       </c>
       <c r="B197" t="s">
-        <v>275</v>
+        <v>237</v>
       </c>
       <c r="D197">
-        <v>0.3867729166666667</v>
+        <v>0.3894047619047619</v>
       </c>
       <c r="E197">
-        <v>0.8639186582809224</v>
+        <v>0.8593723849372384</v>
       </c>
       <c r="F197">
-        <v>0.07618707818064657</v>
+        <v>0.1210332684356637</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4625,16 +4622,16 @@
         <v>202</v>
       </c>
       <c r="B198" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="D198">
-        <v>0.3887181547619048</v>
+        <v>0.390327380952381</v>
       </c>
       <c r="E198">
-        <v>0.8629880252100839</v>
+        <v>0.8593723849372384</v>
       </c>
       <c r="F198">
-        <v>0.07482248176127439</v>
+        <v>0.1205899981053453</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4642,30 +4639,33 @@
         <v>203</v>
       </c>
       <c r="B199" t="s">
-        <v>277</v>
+        <v>237</v>
       </c>
       <c r="D199">
-        <v>0.3927395833333333</v>
+        <v>0.3909970238095238</v>
       </c>
       <c r="E199">
-        <v>0.8591143157894736</v>
+        <v>0.8593723849372384</v>
       </c>
       <c r="F199">
-        <v>0.07215243827178068</v>
+        <v>0.1202194266900442</v>
       </c>
     </row>
     <row r="200" spans="1:6">
       <c r="A200" s="1" t="s">
         <v>204</v>
       </c>
+      <c r="B200" t="s">
+        <v>237</v>
+      </c>
       <c r="D200">
-        <v>0.3928302083333333</v>
+        <v>0.4020833333333333</v>
       </c>
       <c r="E200">
-        <v>0.8591143157894736</v>
+        <v>0.8476793248945147</v>
       </c>
       <c r="F200">
-        <v>0.07205302340919732</v>
+        <v>0.1151662305876436</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -4673,16 +4673,16 @@
         <v>205</v>
       </c>
       <c r="B201" t="s">
-        <v>278</v>
+        <v>237</v>
       </c>
       <c r="D201">
-        <v>0.3962294642857143</v>
+        <v>0.4026041666666667</v>
       </c>
       <c r="E201">
-        <v>0.8577881606765327</v>
+        <v>0.8476793248945147</v>
       </c>
       <c r="F201">
-        <v>0.06993026563716834</v>
+        <v>0.1148274456698054</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -4693,13 +4693,13 @@
         <v>237</v>
       </c>
       <c r="D202">
-        <v>0.396540625</v>
+        <v>0.4105208333333333</v>
       </c>
       <c r="E202">
-        <v>0.8577881606765327</v>
+        <v>0.8392584745762712</v>
       </c>
       <c r="F202">
-        <v>0.06970792132872729</v>
+        <v>0.1111175566310158</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -4710,13 +4710,13 @@
         <v>237</v>
       </c>
       <c r="D203">
-        <v>0.396619494047619</v>
+        <v>0.4136755952380952</v>
       </c>
       <c r="E203">
-        <v>0.8577881606765327</v>
+        <v>0.8365392781316349</v>
       </c>
       <c r="F203">
-        <v>0.06966589204659493</v>
+        <v>0.1093301915561766</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -4724,16 +4724,16 @@
         <v>208</v>
       </c>
       <c r="B204" t="s">
-        <v>279</v>
+        <v>237</v>
       </c>
       <c r="D204">
-        <v>0.3973116071428571</v>
+        <v>0.4179315476190476</v>
       </c>
       <c r="E204">
-        <v>0.8577881606765327</v>
+        <v>0.8322340425531916</v>
       </c>
       <c r="F204">
-        <v>0.06924362512414098</v>
+        <v>0.106724948077939</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -4741,16 +4741,16 @@
         <v>209</v>
       </c>
       <c r="B205" t="s">
-        <v>277</v>
+        <v>237</v>
       </c>
       <c r="D205">
-        <v>0.3996974702380953</v>
+        <v>0.4239583333333333</v>
       </c>
       <c r="E205">
-        <v>0.8577881606765327</v>
+        <v>0.8253731343283582</v>
       </c>
       <c r="F205">
-        <v>0.06765366436916627</v>
+        <v>0.1028524173118401</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -4761,13 +4761,13 @@
         <v>280</v>
       </c>
       <c r="D206">
-        <v>0.4000144345238095</v>
+        <v>0.4303422619047619</v>
       </c>
       <c r="E206">
-        <v>0.8577881606765327</v>
+        <v>0.8179700854700855</v>
       </c>
       <c r="F206">
-        <v>0.06744057344403304</v>
+        <v>0.09870486999670504</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -4778,13 +4778,13 @@
         <v>237</v>
       </c>
       <c r="D207">
-        <v>0.4022717261904762</v>
+        <v>0.4308482142857143</v>
       </c>
       <c r="E207">
-        <v>0.8577881606765327</v>
+        <v>0.8179700854700855</v>
       </c>
       <c r="F207">
-        <v>0.06593888317810179</v>
+        <v>0.0983111117779104</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -4792,16 +4792,16 @@
         <v>212</v>
       </c>
       <c r="B208" t="s">
-        <v>281</v>
+        <v>237</v>
       </c>
       <c r="D208">
-        <v>0.4135572916666667</v>
+        <v>0.4329464285714286</v>
       </c>
       <c r="E208">
-        <v>0.8456858369098713</v>
+        <v>0.817725321888412</v>
       </c>
       <c r="F208">
-        <v>0.05894248856734628</v>
+        <v>0.0965190702176274</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -4809,16 +4809,16 @@
         <v>213</v>
       </c>
       <c r="B209" t="s">
-        <v>282</v>
+        <v>237</v>
       </c>
       <c r="D209">
-        <v>0.4170589285714286</v>
+        <v>0.4335267857142857</v>
       </c>
       <c r="E209">
-        <v>0.8424483870967742</v>
+        <v>0.817725321888412</v>
       </c>
       <c r="F209">
-        <v>0.05670720884848832</v>
+        <v>0.09618690810021367</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -4829,13 +4829,13 @@
         <v>237</v>
       </c>
       <c r="D210">
-        <v>0.4178866071428571</v>
+        <v>0.4430654761904762</v>
       </c>
       <c r="E210">
-        <v>0.8424483870967742</v>
+        <v>0.8065948275862069</v>
       </c>
       <c r="F210">
-        <v>0.05633811473358553</v>
+        <v>0.0891514609672197</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -4846,13 +4846,13 @@
         <v>237</v>
       </c>
       <c r="D211">
-        <v>0.4310614583333333</v>
+        <v>0.4434375</v>
       </c>
       <c r="E211">
-        <v>0.8257598272138229</v>
+        <v>0.8065948275862069</v>
       </c>
       <c r="F211">
-        <v>0.04820382351059024</v>
+        <v>0.08877952927184246</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -4860,16 +4860,16 @@
         <v>216</v>
       </c>
       <c r="B212" t="s">
-        <v>237</v>
+        <v>281</v>
       </c>
       <c r="D212">
-        <v>0.4314785714285713</v>
+        <v>0.4494494047619048</v>
       </c>
       <c r="E212">
-        <v>0.8257598272138229</v>
+        <v>0.8008008658008658</v>
       </c>
       <c r="F212">
-        <v>0.04799708940804735</v>
+        <v>0.08374832836785118</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4880,13 +4880,13 @@
         <v>237</v>
       </c>
       <c r="D213">
-        <v>0.4428345238095238</v>
+        <v>0.451235119047619</v>
       </c>
       <c r="E213">
-        <v>0.8121804772234273</v>
+        <v>0.7999349240780911</v>
       </c>
       <c r="F213">
-        <v>0.04100561904239897</v>
+        <v>0.08229323503251673</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -4894,16 +4894,16 @@
         <v>218</v>
       </c>
       <c r="B214" t="s">
-        <v>237</v>
+        <v>275</v>
       </c>
       <c r="D214">
-        <v>0.4439693452380952</v>
+        <v>0.4522172619047619</v>
       </c>
       <c r="E214">
-        <v>0.8121804772234273</v>
+        <v>0.7999349240780911</v>
       </c>
       <c r="F214">
-        <v>0.04029175868708642</v>
+        <v>0.08162084840082863</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -4911,16 +4911,16 @@
         <v>219</v>
       </c>
       <c r="B215" t="s">
-        <v>237</v>
+        <v>282</v>
       </c>
       <c r="D215">
-        <v>0.4508491071428571</v>
+        <v>0.4545684523809524</v>
       </c>
       <c r="E215">
-        <v>0.8039858387799563</v>
+        <v>0.7985403050108932</v>
       </c>
       <c r="F215">
-        <v>0.03592809123949325</v>
+        <v>0.07978212120316068</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -4931,13 +4931,13 @@
         <v>237</v>
       </c>
       <c r="D216">
-        <v>0.4513686011904762</v>
+        <v>0.4609375</v>
       </c>
       <c r="E216">
-        <v>0.8039858387799563</v>
+        <v>0.7909388646288209</v>
       </c>
       <c r="F216">
-        <v>0.03554102121382472</v>
+        <v>0.0756113487258451</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -4945,16 +4945,16 @@
         <v>221</v>
       </c>
       <c r="B217" t="s">
-        <v>237</v>
+        <v>283</v>
       </c>
       <c r="D217">
-        <v>0.4539300595238096</v>
+        <v>0.4640029761904762</v>
       </c>
       <c r="E217">
-        <v>0.8029743982494529</v>
+        <v>0.7881619256017506</v>
       </c>
       <c r="F217">
-        <v>0.03382090016689041</v>
+        <v>0.07336584326896567</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -4965,13 +4965,13 @@
         <v>237</v>
       </c>
       <c r="D218">
-        <v>0.4573724702380952</v>
+        <v>0.4666517857142857</v>
       </c>
       <c r="E218">
-        <v>0.7996618421052631</v>
+        <v>0.7859868421052632</v>
       </c>
       <c r="F218">
-        <v>0.03175180189349529</v>
+        <v>0.07089153099475022</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -4979,16 +4979,16 @@
         <v>223</v>
       </c>
       <c r="B219" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="D219">
-        <v>0.4574663690476191</v>
+        <v>0.4686011904761905</v>
       </c>
       <c r="E219">
-        <v>0.7996618421052631</v>
+        <v>0.7848351648351649</v>
       </c>
       <c r="F219">
-        <v>0.03169529813138075</v>
+        <v>0.06912592775071355</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -4996,16 +4996,16 @@
         <v>224</v>
       </c>
       <c r="B220" t="s">
-        <v>283</v>
+        <v>237</v>
       </c>
       <c r="D220">
-        <v>0.4618443452380953</v>
+        <v>0.4739136904761905</v>
       </c>
       <c r="E220">
-        <v>0.796565859030837</v>
+        <v>0.7787004405286343</v>
       </c>
       <c r="F220">
-        <v>0.02870915272031862</v>
+        <v>0.0637711799100379</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5013,16 +5013,16 @@
         <v>225</v>
       </c>
       <c r="B221" t="s">
-        <v>237</v>
+        <v>284</v>
       </c>
       <c r="D221">
-        <v>0.4624873511904762</v>
+        <v>0.4787202380952381</v>
       </c>
       <c r="E221">
-        <v>0.796565859030837</v>
+        <v>0.7732891832229579</v>
       </c>
       <c r="F221">
-        <v>0.02826675080983122</v>
+        <v>0.05951167385502371</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5033,13 +5033,13 @@
         <v>237</v>
       </c>
       <c r="D222">
-        <v>0.4668644345238096</v>
+        <v>0.480610119047619</v>
       </c>
       <c r="E222">
-        <v>0.7926285398230088</v>
+        <v>0.7721902654867255</v>
       </c>
       <c r="F222">
-        <v>0.0254163085113577</v>
+        <v>0.05793893976076987</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5047,16 +5047,16 @@
         <v>227</v>
       </c>
       <c r="B223" t="s">
-        <v>284</v>
+        <v>237</v>
       </c>
       <c r="D223">
-        <v>0.4765903273809524</v>
+        <v>0.497202380952381</v>
       </c>
       <c r="E223">
-        <v>0.7798920177383593</v>
+        <v>0.7491796008869179</v>
       </c>
       <c r="F223">
-        <v>0.01893218042231566</v>
+        <v>0.04594268448731389</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5064,16 +5064,16 @@
         <v>228</v>
       </c>
       <c r="B224" t="s">
-        <v>285</v>
+        <v>237</v>
       </c>
       <c r="D224">
-        <v>0.4768955357142857</v>
+        <v>0.4999553571428572</v>
       </c>
       <c r="E224">
-        <v>0.7798920177383593</v>
+        <v>0.7466</v>
       </c>
       <c r="F224">
-        <v>0.01882955823551878</v>
+        <v>0.04327198435947418</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5081,16 +5081,16 @@
         <v>229</v>
       </c>
       <c r="B225" t="s">
-        <v>237</v>
+        <v>285</v>
       </c>
       <c r="D225">
-        <v>0.4807261904761905</v>
+        <v>0.4974553571428572</v>
       </c>
       <c r="E225">
-        <v>0.7771761692650335</v>
+        <v>0.7445211581291759</v>
       </c>
       <c r="F225">
-        <v>0.01619165063658644</v>
+        <v>0.04043307422443972</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5101,13 +5101,13 @@
         <v>237</v>
       </c>
       <c r="D226">
-        <v>0.4812162202380952</v>
+        <v>0.4959375</v>
       </c>
       <c r="E226">
-        <v>0.7771761692650335</v>
+        <v>0.74390625</v>
       </c>
       <c r="F226">
-        <v>0.01586674427918448</v>
+        <v>0.03829205834577438</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5118,13 +5118,13 @@
         <v>237</v>
       </c>
       <c r="D227">
-        <v>0.4841522321428571</v>
+        <v>0.4937797619047619</v>
       </c>
       <c r="E227">
-        <v>0.7755031319910515</v>
+        <v>0.7423266219239374</v>
       </c>
       <c r="F227">
-        <v>0.01361205800132072</v>
+        <v>0.03488930060224216</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5135,13 +5135,13 @@
         <v>237</v>
       </c>
       <c r="D228">
-        <v>0.4858206845238095</v>
+        <v>0.4936160714285714</v>
       </c>
       <c r="E228">
-        <v>0.7747275784753364</v>
+        <v>0.7423266219239374</v>
       </c>
       <c r="F228">
-        <v>0.01259367254807248</v>
+        <v>0.03458374468152557</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5152,13 +5152,13 @@
         <v>286</v>
       </c>
       <c r="D229">
-        <v>0.4877391369047619</v>
+        <v>0.4920535714285714</v>
       </c>
       <c r="E229">
-        <v>0.7735820224719102</v>
+        <v>0.7423266219239374</v>
       </c>
       <c r="F229">
-        <v>0.01138950194064291</v>
+        <v>0.03170611950852813</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5169,13 +5169,13 @@
         <v>237</v>
       </c>
       <c r="D230">
-        <v>0.4877764880952381</v>
+        <v>0.4852380952380953</v>
       </c>
       <c r="E230">
-        <v>0.7735820224719102</v>
+        <v>0.7344144144144145</v>
       </c>
       <c r="F230">
-        <v>0.01135768986477221</v>
+        <v>0.02096236553606497</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5186,13 +5186,13 @@
         <v>237</v>
       </c>
       <c r="D231">
-        <v>0.4988516369047619</v>
+        <v>0.4817708333333333</v>
       </c>
       <c r="E231">
-        <v>0.7602069977426638</v>
+        <v>0.7308126410835214</v>
       </c>
       <c r="F231">
-        <v>0.003665977265906925</v>
+        <v>0.008714310074857023</v>
       </c>
     </row>
   </sheetData>
